--- a/fecundidad.xlsx
+++ b/fecundidad.xlsx
@@ -12,12 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="853">
   <si>
     <t xml:space="preserve">Ubigeo</t>
   </si>
   <si>
-    <t xml:space="preserve">Provincia</t>
+    <t xml:space="preserve">PROVINCIA</t>
   </si>
   <si>
     <t xml:space="preserve">mortalidadinf</t>
@@ -35,82 +35,208 @@
     <t xml:space="preserve">CHACHAPOYAS</t>
   </si>
   <si>
+    <t xml:space="preserve">20.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.658649</t>
+  </si>
+  <si>
     <t xml:space="preserve">010200</t>
   </si>
   <si>
     <t xml:space="preserve">BAGUA</t>
   </si>
   <si>
+    <t xml:space="preserve">16.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.005875</t>
+  </si>
+  <si>
     <t xml:space="preserve">010300</t>
   </si>
   <si>
     <t xml:space="preserve">BONGARA</t>
   </si>
   <si>
+    <t xml:space="preserve">21.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.370397</t>
+  </si>
+  <si>
     <t xml:space="preserve">010400</t>
   </si>
   <si>
     <t xml:space="preserve">CONDORCANQUI</t>
   </si>
   <si>
+    <t xml:space="preserve">28.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.755867</t>
+  </si>
+  <si>
     <t xml:space="preserve">010500</t>
   </si>
   <si>
     <t xml:space="preserve">LUYA</t>
   </si>
   <si>
+    <t xml:space="preserve">24.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.627197</t>
+  </si>
+  <si>
     <t xml:space="preserve">010600</t>
   </si>
   <si>
     <t xml:space="preserve">RODRIGUEZ DE MENDOZA</t>
   </si>
   <si>
+    <t xml:space="preserve">14.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.47929</t>
+  </si>
+  <si>
     <t xml:space="preserve">010700</t>
   </si>
   <si>
     <t xml:space="preserve">UTCUBAMBA</t>
   </si>
   <si>
+    <t xml:space="preserve">19.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.489951</t>
+  </si>
+  <si>
     <t xml:space="preserve">020100</t>
   </si>
   <si>
     <t xml:space="preserve">HUARAZ</t>
   </si>
   <si>
+    <t xml:space="preserve">23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.62561</t>
+  </si>
+  <si>
     <t xml:space="preserve">020200</t>
   </si>
   <si>
     <t xml:space="preserve">AIJA</t>
   </si>
   <si>
+    <t xml:space="preserve">41.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.892857</t>
+  </si>
+  <si>
     <t xml:space="preserve">020300</t>
   </si>
   <si>
     <t xml:space="preserve">ANTONIO RAYMONDI</t>
   </si>
   <si>
+    <t xml:space="preserve">32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.363411</t>
+  </si>
+  <si>
     <t xml:space="preserve">020400</t>
   </si>
   <si>
     <t xml:space="preserve">ASUNCION</t>
   </si>
   <si>
+    <t xml:space="preserve">32.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.466231</t>
+  </si>
+  <si>
     <t xml:space="preserve">020500</t>
   </si>
   <si>
     <t xml:space="preserve">BOLOGNESI</t>
   </si>
   <si>
+    <t xml:space="preserve">27.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.188759</t>
+  </si>
+  <si>
     <t xml:space="preserve">020600</t>
   </si>
   <si>
     <t xml:space="preserve">CARHUAZ</t>
   </si>
   <si>
+    <t xml:space="preserve">22.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.027812</t>
+  </si>
+  <si>
     <t xml:space="preserve">020700</t>
   </si>
   <si>
-    <t xml:space="preserve">CARLOS FERMIN FITZCARRALD</t>
+    <t xml:space="preserve">CARLOS F. FITZCARRALD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.103583</t>
   </si>
   <si>
     <t xml:space="preserve">020800</t>
@@ -119,1078 +245,2332 @@
     <t xml:space="preserve">CASMA</t>
   </si>
   <si>
+    <t xml:space="preserve">16.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.584619</t>
+  </si>
+  <si>
     <t xml:space="preserve">020900</t>
   </si>
   <si>
     <t xml:space="preserve">CORONGO</t>
   </si>
   <si>
+    <t xml:space="preserve">20.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.919951</t>
+  </si>
+  <si>
     <t xml:space="preserve">021000</t>
   </si>
   <si>
     <t xml:space="preserve">HUARI</t>
   </si>
   <si>
+    <t xml:space="preserve">24.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.115754</t>
+  </si>
+  <si>
     <t xml:space="preserve">021100</t>
   </si>
   <si>
     <t xml:space="preserve">HUARMEY</t>
   </si>
   <si>
+    <t xml:space="preserve">13.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.349451</t>
+  </si>
+  <si>
     <t xml:space="preserve">021200</t>
   </si>
   <si>
     <t xml:space="preserve">HUAYLAS</t>
   </si>
   <si>
+    <t xml:space="preserve">19.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.521129</t>
+  </si>
+  <si>
     <t xml:space="preserve">021300</t>
   </si>
   <si>
     <t xml:space="preserve">MARISCAL LUZURIAGA</t>
   </si>
   <si>
+    <t xml:space="preserve">26.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.9683</t>
+  </si>
+  <si>
     <t xml:space="preserve">021400</t>
   </si>
   <si>
     <t xml:space="preserve">OCROS</t>
   </si>
   <si>
+    <t xml:space="preserve">12.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.741176</t>
+  </si>
+  <si>
     <t xml:space="preserve">021500</t>
   </si>
   <si>
     <t xml:space="preserve">PALLASCA</t>
   </si>
   <si>
+    <t xml:space="preserve">37.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.79887</t>
+  </si>
+  <si>
     <t xml:space="preserve">021600</t>
   </si>
   <si>
     <t xml:space="preserve">POMABAMBA</t>
   </si>
   <si>
+    <t xml:space="preserve">17.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.016149</t>
+  </si>
+  <si>
     <t xml:space="preserve">021700</t>
   </si>
   <si>
     <t xml:space="preserve">RECUAY</t>
   </si>
   <si>
+    <t xml:space="preserve">26.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.766586</t>
+  </si>
+  <si>
     <t xml:space="preserve">021800</t>
   </si>
   <si>
     <t xml:space="preserve">SANTA</t>
   </si>
   <si>
+    <t xml:space="preserve">2.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8233702</t>
+  </si>
+  <si>
     <t xml:space="preserve">021900</t>
   </si>
   <si>
     <t xml:space="preserve">SIHUAS</t>
   </si>
   <si>
+    <t xml:space="preserve">25.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.083448</t>
+  </si>
+  <si>
     <t xml:space="preserve">022000</t>
   </si>
   <si>
     <t xml:space="preserve">YUNGAY</t>
   </si>
   <si>
+    <t xml:space="preserve">37.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.691281</t>
+  </si>
+  <si>
     <t xml:space="preserve">030100</t>
   </si>
   <si>
     <t xml:space="preserve">ABANCAY</t>
   </si>
   <si>
+    <t xml:space="preserve">2.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.420776</t>
+  </si>
+  <si>
     <t xml:space="preserve">030200</t>
   </si>
   <si>
     <t xml:space="preserve">ANDAHUAYLAS</t>
   </si>
   <si>
+    <t xml:space="preserve">18.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.054541</t>
+  </si>
+  <si>
     <t xml:space="preserve">030300</t>
   </si>
   <si>
     <t xml:space="preserve">ANTABAMBA</t>
   </si>
   <si>
+    <t xml:space="preserve">41.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.430951</t>
+  </si>
+  <si>
     <t xml:space="preserve">030400</t>
   </si>
   <si>
     <t xml:space="preserve">AYMARAES</t>
   </si>
   <si>
+    <t xml:space="preserve">27.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.905958</t>
+  </si>
+  <si>
     <t xml:space="preserve">030500</t>
   </si>
   <si>
     <t xml:space="preserve">COTABAMBAS</t>
   </si>
   <si>
+    <t xml:space="preserve">24.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.229112</t>
+  </si>
+  <si>
     <t xml:space="preserve">030600</t>
   </si>
   <si>
     <t xml:space="preserve">CHINCHEROS</t>
   </si>
   <si>
+    <t xml:space="preserve">3.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.923966</t>
+  </si>
+  <si>
     <t xml:space="preserve">030700</t>
   </si>
   <si>
     <t xml:space="preserve">GRAU</t>
   </si>
   <si>
+    <t xml:space="preserve">30.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.535798</t>
+  </si>
+  <si>
     <t xml:space="preserve">040100</t>
   </si>
   <si>
     <t xml:space="preserve">AREQUIPA</t>
   </si>
   <si>
+    <t xml:space="preserve">16.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.85136</t>
+  </si>
+  <si>
     <t xml:space="preserve">040200</t>
   </si>
   <si>
     <t xml:space="preserve">CAMANA</t>
   </si>
   <si>
+    <t xml:space="preserve">13.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.846474</t>
+  </si>
+  <si>
     <t xml:space="preserve">040300</t>
   </si>
   <si>
     <t xml:space="preserve">CARAVELI</t>
   </si>
   <si>
+    <t xml:space="preserve">2.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.689372</t>
+  </si>
+  <si>
     <t xml:space="preserve">040400</t>
   </si>
   <si>
     <t xml:space="preserve">CASTILLA</t>
   </si>
   <si>
+    <t xml:space="preserve">23.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3565</t>
+  </si>
+  <si>
     <t xml:space="preserve">040500</t>
   </si>
   <si>
     <t xml:space="preserve">CAYLLOMA</t>
   </si>
   <si>
+    <t xml:space="preserve">23.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.819912</t>
+  </si>
+  <si>
     <t xml:space="preserve">040600</t>
   </si>
   <si>
     <t xml:space="preserve">CONDESUYOS</t>
   </si>
   <si>
+    <t xml:space="preserve">22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.77101</t>
+  </si>
+  <si>
     <t xml:space="preserve">040700</t>
   </si>
   <si>
     <t xml:space="preserve">ISLAY</t>
   </si>
   <si>
+    <t xml:space="preserve">21.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.074024</t>
+  </si>
+  <si>
     <t xml:space="preserve">040800</t>
   </si>
   <si>
     <t xml:space="preserve">LA UNION</t>
   </si>
   <si>
+    <t xml:space="preserve">25.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.601857</t>
+  </si>
+  <si>
     <t xml:space="preserve">050100</t>
   </si>
   <si>
     <t xml:space="preserve">HUAMANGA</t>
   </si>
   <si>
+    <t xml:space="preserve">25.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.332593</t>
+  </si>
+  <si>
     <t xml:space="preserve">050200</t>
   </si>
   <si>
     <t xml:space="preserve">CANGALLO</t>
   </si>
   <si>
+    <t xml:space="preserve">22.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.666833</t>
+  </si>
+  <si>
     <t xml:space="preserve">050300</t>
   </si>
   <si>
     <t xml:space="preserve">HUANCA SANCOS</t>
   </si>
   <si>
+    <t xml:space="preserve">26.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.549598</t>
+  </si>
+  <si>
     <t xml:space="preserve">050400</t>
   </si>
   <si>
     <t xml:space="preserve">HUANTA</t>
   </si>
   <si>
+    <t xml:space="preserve">24.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.002134</t>
+  </si>
+  <si>
     <t xml:space="preserve">050500</t>
   </si>
   <si>
     <t xml:space="preserve">LA MAR</t>
   </si>
   <si>
+    <t xml:space="preserve">22.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.306407</t>
+  </si>
+  <si>
     <t xml:space="preserve">050600</t>
   </si>
   <si>
     <t xml:space="preserve">LUCANAS</t>
   </si>
   <si>
+    <t xml:space="preserve">25.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.277724</t>
+  </si>
+  <si>
     <t xml:space="preserve">050700</t>
   </si>
   <si>
     <t xml:space="preserve">PARINACOCHAS</t>
   </si>
   <si>
+    <t xml:space="preserve">43.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.820746</t>
+  </si>
+  <si>
     <t xml:space="preserve">050800</t>
   </si>
   <si>
     <t xml:space="preserve">PAUCAR DEL SARA SARA</t>
   </si>
   <si>
+    <t xml:space="preserve">19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.873934</t>
+  </si>
+  <si>
     <t xml:space="preserve">050900</t>
   </si>
   <si>
     <t xml:space="preserve">SUCRE</t>
   </si>
   <si>
+    <t xml:space="preserve">2.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.874325</t>
+  </si>
+  <si>
     <t xml:space="preserve">051000</t>
   </si>
   <si>
     <t xml:space="preserve">VICTOR FAJARDO</t>
   </si>
   <si>
+    <t xml:space="preserve">3.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.280958</t>
+  </si>
+  <si>
     <t xml:space="preserve">051100</t>
   </si>
   <si>
     <t xml:space="preserve">VILCAS HUAMAN</t>
   </si>
   <si>
+    <t xml:space="preserve">2.89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.145954</t>
+  </si>
+  <si>
     <t xml:space="preserve">060100</t>
   </si>
   <si>
     <t xml:space="preserve">CAJAMARCA</t>
   </si>
   <si>
+    <t xml:space="preserve">22.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.269162</t>
+  </si>
+  <si>
     <t xml:space="preserve">060200</t>
   </si>
   <si>
     <t xml:space="preserve">CAJABAMBA</t>
   </si>
   <si>
+    <t xml:space="preserve">3.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.726994</t>
+  </si>
+  <si>
     <t xml:space="preserve">060300</t>
   </si>
   <si>
     <t xml:space="preserve">CELENDIN</t>
   </si>
   <si>
+    <t xml:space="preserve">31.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.280156</t>
+  </si>
+  <si>
     <t xml:space="preserve">060400</t>
   </si>
   <si>
     <t xml:space="preserve">CHOTA</t>
   </si>
   <si>
+    <t xml:space="preserve">19.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.434846</t>
+  </si>
+  <si>
     <t xml:space="preserve">060500</t>
   </si>
   <si>
     <t xml:space="preserve">CONTUMAZA</t>
   </si>
   <si>
+    <t xml:space="preserve">22.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.023686</t>
+  </si>
+  <si>
     <t xml:space="preserve">060600</t>
   </si>
   <si>
     <t xml:space="preserve">CUTERVO</t>
   </si>
   <si>
+    <t xml:space="preserve">18.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.300962</t>
+  </si>
+  <si>
     <t xml:space="preserve">060700</t>
   </si>
   <si>
     <t xml:space="preserve">HUALGAYOC</t>
   </si>
   <si>
+    <t xml:space="preserve">18.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.623709</t>
+  </si>
+  <si>
     <t xml:space="preserve">060800</t>
   </si>
   <si>
     <t xml:space="preserve">JAEN</t>
   </si>
   <si>
+    <t xml:space="preserve">20.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.28635</t>
+  </si>
+  <si>
     <t xml:space="preserve">060900</t>
   </si>
   <si>
     <t xml:space="preserve">SAN IGNACIO</t>
   </si>
   <si>
+    <t xml:space="preserve">21.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.450348</t>
+  </si>
+  <si>
     <t xml:space="preserve">061000</t>
   </si>
   <si>
     <t xml:space="preserve">SAN MARCOS</t>
   </si>
   <si>
+    <t xml:space="preserve">31.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.997012</t>
+  </si>
+  <si>
     <t xml:space="preserve">061100</t>
   </si>
   <si>
     <t xml:space="preserve">SAN MIGUEL</t>
   </si>
   <si>
+    <t xml:space="preserve">2.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.793651</t>
+  </si>
+  <si>
     <t xml:space="preserve">061200</t>
   </si>
   <si>
     <t xml:space="preserve">SAN PABLO</t>
   </si>
   <si>
+    <t xml:space="preserve">34.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.258271</t>
+  </si>
+  <si>
     <t xml:space="preserve">061300</t>
   </si>
   <si>
     <t xml:space="preserve">SANTA CRUZ</t>
   </si>
   <si>
+    <t xml:space="preserve">21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.786323</t>
+  </si>
+  <si>
     <t xml:space="preserve">070100</t>
   </si>
   <si>
     <t xml:space="preserve">CALLAO</t>
   </si>
   <si>
+    <t xml:space="preserve">10.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5</t>
+  </si>
+  <si>
     <t xml:space="preserve">080100</t>
   </si>
   <si>
     <t xml:space="preserve">CUSCO</t>
   </si>
   <si>
+    <t xml:space="preserve">15.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.697917</t>
+  </si>
+  <si>
     <t xml:space="preserve">080200</t>
   </si>
   <si>
     <t xml:space="preserve">ACOMAYO</t>
   </si>
   <si>
+    <t xml:space="preserve">44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.590854</t>
+  </si>
+  <si>
     <t xml:space="preserve">080300</t>
   </si>
   <si>
     <t xml:space="preserve">ANTA</t>
   </si>
   <si>
+    <t xml:space="preserve">19.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.994515</t>
+  </si>
+  <si>
     <t xml:space="preserve">080400</t>
   </si>
   <si>
     <t xml:space="preserve">CALCA</t>
   </si>
   <si>
+    <t xml:space="preserve">23.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.932087</t>
+  </si>
+  <si>
     <t xml:space="preserve">080500</t>
   </si>
   <si>
     <t xml:space="preserve">CANAS</t>
   </si>
   <si>
+    <t xml:space="preserve">45.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.157638</t>
+  </si>
+  <si>
     <t xml:space="preserve">080600</t>
   </si>
   <si>
     <t xml:space="preserve">CANCHIS</t>
   </si>
   <si>
+    <t xml:space="preserve">2.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.923469</t>
+  </si>
+  <si>
     <t xml:space="preserve">080700</t>
   </si>
   <si>
     <t xml:space="preserve">CHUMBIVILCAS</t>
   </si>
   <si>
+    <t xml:space="preserve">30.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.838411</t>
+  </si>
+  <si>
     <t xml:space="preserve">080800</t>
   </si>
   <si>
     <t xml:space="preserve">ESPINAR</t>
   </si>
   <si>
+    <t xml:space="preserve">30.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.064597</t>
+  </si>
+  <si>
     <t xml:space="preserve">080900</t>
   </si>
   <si>
     <t xml:space="preserve">LA CONVENCION</t>
   </si>
   <si>
+    <t xml:space="preserve">18.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.936549</t>
+  </si>
+  <si>
     <t xml:space="preserve">081000</t>
   </si>
   <si>
     <t xml:space="preserve">PARURO</t>
   </si>
   <si>
+    <t xml:space="preserve">37.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.453242</t>
+  </si>
+  <si>
     <t xml:space="preserve">081100</t>
   </si>
   <si>
     <t xml:space="preserve">PAUCARTAMBO</t>
   </si>
   <si>
+    <t xml:space="preserve">39.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.347618</t>
+  </si>
+  <si>
     <t xml:space="preserve">081200</t>
   </si>
   <si>
     <t xml:space="preserve">QUISPICANCHI</t>
   </si>
   <si>
+    <t xml:space="preserve">39.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.784395</t>
+  </si>
+  <si>
     <t xml:space="preserve">081300</t>
   </si>
   <si>
     <t xml:space="preserve">URUBAMBA</t>
   </si>
   <si>
+    <t xml:space="preserve">17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.214876</t>
+  </si>
+  <si>
     <t xml:space="preserve">090100</t>
   </si>
   <si>
     <t xml:space="preserve">HUANCAVELICA</t>
   </si>
   <si>
+    <t xml:space="preserve">34.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.014461</t>
+  </si>
+  <si>
     <t xml:space="preserve">090200</t>
   </si>
   <si>
     <t xml:space="preserve">ACOBAMBA</t>
   </si>
   <si>
+    <t xml:space="preserve">55.162966</t>
+  </si>
+  <si>
     <t xml:space="preserve">090300</t>
   </si>
   <si>
     <t xml:space="preserve">ANGARAES</t>
   </si>
   <si>
+    <t xml:space="preserve">31.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58.420091</t>
+  </si>
+  <si>
     <t xml:space="preserve">090400</t>
   </si>
   <si>
     <t xml:space="preserve">CASTROVIRREYNA</t>
   </si>
   <si>
+    <t xml:space="preserve">27.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.199297</t>
+  </si>
+  <si>
     <t xml:space="preserve">090500</t>
   </si>
   <si>
     <t xml:space="preserve">CHURCAMPA</t>
   </si>
   <si>
+    <t xml:space="preserve">28.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.710753</t>
+  </si>
+  <si>
     <t xml:space="preserve">090600</t>
   </si>
   <si>
     <t xml:space="preserve">HUAYTARA</t>
   </si>
   <si>
+    <t xml:space="preserve">21.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.06438</t>
+  </si>
+  <si>
     <t xml:space="preserve">090700</t>
   </si>
   <si>
     <t xml:space="preserve">TAYACAJA</t>
   </si>
   <si>
+    <t xml:space="preserve">55.101324</t>
+  </si>
+  <si>
     <t xml:space="preserve">100100</t>
   </si>
   <si>
     <t xml:space="preserve">HUANUCO</t>
   </si>
   <si>
+    <t xml:space="preserve">2.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.626331</t>
+  </si>
+  <si>
     <t xml:space="preserve">100200</t>
   </si>
   <si>
     <t xml:space="preserve">AMBO</t>
   </si>
   <si>
+    <t xml:space="preserve">19.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.291241</t>
+  </si>
+  <si>
     <t xml:space="preserve">100300</t>
   </si>
   <si>
     <t xml:space="preserve">DOS DE MAYO</t>
   </si>
   <si>
+    <t xml:space="preserve">36.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.239301</t>
+  </si>
+  <si>
     <t xml:space="preserve">100400</t>
   </si>
   <si>
     <t xml:space="preserve">HUACAYBAMBA</t>
   </si>
   <si>
+    <t xml:space="preserve">3.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.694486</t>
+  </si>
+  <si>
     <t xml:space="preserve">100500</t>
   </si>
   <si>
     <t xml:space="preserve">HUAMALIES</t>
   </si>
   <si>
+    <t xml:space="preserve">43.695277</t>
+  </si>
+  <si>
     <t xml:space="preserve">100600</t>
   </si>
   <si>
     <t xml:space="preserve">LEONCIO PRADO</t>
   </si>
   <si>
+    <t xml:space="preserve">17.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.570173</t>
+  </si>
+  <si>
     <t xml:space="preserve">100700</t>
   </si>
   <si>
     <t xml:space="preserve">MARANON</t>
   </si>
   <si>
+    <t xml:space="preserve">36.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.173589</t>
+  </si>
+  <si>
     <t xml:space="preserve">100800</t>
   </si>
   <si>
     <t xml:space="preserve">PACHITEA</t>
   </si>
   <si>
+    <t xml:space="preserve">27.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.955331</t>
+  </si>
+  <si>
     <t xml:space="preserve">100900</t>
   </si>
   <si>
     <t xml:space="preserve">PUERTO INCA</t>
   </si>
   <si>
+    <t xml:space="preserve">21.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.800286</t>
+  </si>
+  <si>
     <t xml:space="preserve">101000</t>
   </si>
   <si>
     <t xml:space="preserve">LAURICOCHA</t>
   </si>
   <si>
+    <t xml:space="preserve">24.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.119534</t>
+  </si>
+  <si>
     <t xml:space="preserve">101100</t>
   </si>
   <si>
     <t xml:space="preserve">YAROWILCA</t>
   </si>
   <si>
+    <t xml:space="preserve">29.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.819129</t>
+  </si>
+  <si>
     <t xml:space="preserve">110100</t>
   </si>
   <si>
     <t xml:space="preserve">ICA</t>
   </si>
   <si>
+    <t xml:space="preserve">10.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.92409</t>
+  </si>
+  <si>
     <t xml:space="preserve">110200</t>
   </si>
   <si>
     <t xml:space="preserve">CHINCHA</t>
   </si>
   <si>
+    <t xml:space="preserve">10.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.960389</t>
+  </si>
+  <si>
     <t xml:space="preserve">110300</t>
   </si>
   <si>
     <t xml:space="preserve">NAZCA</t>
   </si>
   <si>
+    <t xml:space="preserve">9.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8035105</t>
+  </si>
+  <si>
     <t xml:space="preserve">110400</t>
   </si>
   <si>
     <t xml:space="preserve">PALPA</t>
   </si>
   <si>
+    <t xml:space="preserve">10.049524</t>
+  </si>
+  <si>
     <t xml:space="preserve">110500</t>
   </si>
   <si>
     <t xml:space="preserve">PISCO</t>
   </si>
   <si>
+    <t xml:space="preserve">12.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6158</t>
+  </si>
+  <si>
     <t xml:space="preserve">120100</t>
   </si>
   <si>
     <t xml:space="preserve">HUANCAYO</t>
   </si>
   <si>
+    <t xml:space="preserve">2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.212456</t>
+  </si>
+  <si>
     <t xml:space="preserve">120200</t>
   </si>
   <si>
     <t xml:space="preserve">CONCEPCION</t>
   </si>
   <si>
+    <t xml:space="preserve">26.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.227942</t>
+  </si>
+  <si>
     <t xml:space="preserve">120300</t>
   </si>
   <si>
     <t xml:space="preserve">CHANCHAMAYO</t>
   </si>
   <si>
+    <t xml:space="preserve">2.82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.02997</t>
+  </si>
+  <si>
     <t xml:space="preserve">120400</t>
   </si>
   <si>
     <t xml:space="preserve">JAUJA</t>
   </si>
   <si>
+    <t xml:space="preserve">25.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.907721</t>
+  </si>
+  <si>
     <t xml:space="preserve">120500</t>
   </si>
   <si>
     <t xml:space="preserve">JUNIN</t>
   </si>
   <si>
+    <t xml:space="preserve">2.46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.092742</t>
+  </si>
+  <si>
     <t xml:space="preserve">120600</t>
   </si>
   <si>
     <t xml:space="preserve">SATIPO</t>
   </si>
   <si>
+    <t xml:space="preserve">31.657401</t>
+  </si>
+  <si>
     <t xml:space="preserve">120700</t>
   </si>
   <si>
     <t xml:space="preserve">TARMA</t>
   </si>
   <si>
+    <t xml:space="preserve">2.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.539059</t>
+  </si>
+  <si>
     <t xml:space="preserve">120800</t>
   </si>
   <si>
     <t xml:space="preserve">YAULI</t>
   </si>
   <si>
+    <t xml:space="preserve">17.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.441871</t>
+  </si>
+  <si>
     <t xml:space="preserve">120900</t>
   </si>
   <si>
     <t xml:space="preserve">CHUPACA</t>
   </si>
   <si>
+    <t xml:space="preserve">25.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.789407</t>
+  </si>
+  <si>
     <t xml:space="preserve">130100</t>
   </si>
   <si>
     <t xml:space="preserve">TRUJILLO</t>
   </si>
   <si>
+    <t xml:space="preserve">2.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.894048</t>
+  </si>
+  <si>
     <t xml:space="preserve">130200</t>
   </si>
   <si>
     <t xml:space="preserve">ASCOPE</t>
   </si>
   <si>
+    <t xml:space="preserve">15.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.310537</t>
+  </si>
+  <si>
     <t xml:space="preserve">130300</t>
   </si>
   <si>
     <t xml:space="preserve">BOLIVAR</t>
   </si>
   <si>
+    <t xml:space="preserve">5.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.709951</t>
+  </si>
+  <si>
     <t xml:space="preserve">130400</t>
   </si>
   <si>
     <t xml:space="preserve">CHEPEN</t>
   </si>
   <si>
+    <t xml:space="preserve">14.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.933333</t>
+  </si>
+  <si>
     <t xml:space="preserve">130500</t>
   </si>
   <si>
     <t xml:space="preserve">JULCAN</t>
   </si>
   <si>
+    <t xml:space="preserve">3.98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.25065</t>
+  </si>
+  <si>
     <t xml:space="preserve">130600</t>
   </si>
   <si>
     <t xml:space="preserve">OTUZCO</t>
   </si>
   <si>
+    <t xml:space="preserve">45.156359</t>
+  </si>
+  <si>
     <t xml:space="preserve">130700</t>
   </si>
   <si>
     <t xml:space="preserve">PACASMAYO</t>
   </si>
   <si>
+    <t xml:space="preserve">11.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.377904</t>
+  </si>
+  <si>
     <t xml:space="preserve">130800</t>
   </si>
   <si>
     <t xml:space="preserve">PATAZ</t>
   </si>
   <si>
+    <t xml:space="preserve">4.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58.558247</t>
+  </si>
+  <si>
     <t xml:space="preserve">130900</t>
   </si>
   <si>
     <t xml:space="preserve">SANCHEZ CARRION</t>
   </si>
   <si>
+    <t xml:space="preserve">29.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.379593</t>
+  </si>
+  <si>
     <t xml:space="preserve">131000</t>
   </si>
   <si>
     <t xml:space="preserve">SANTIAGO DE CHUCO</t>
   </si>
   <si>
+    <t xml:space="preserve">3.88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.684659</t>
+  </si>
+  <si>
     <t xml:space="preserve">131100</t>
   </si>
   <si>
     <t xml:space="preserve">GRAN CHIMU</t>
   </si>
   <si>
+    <t xml:space="preserve">20.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.7634</t>
+  </si>
+  <si>
     <t xml:space="preserve">131200</t>
   </si>
   <si>
     <t xml:space="preserve">VIRU</t>
   </si>
   <si>
+    <t xml:space="preserve">14.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.257273</t>
+  </si>
+  <si>
     <t xml:space="preserve">140100</t>
   </si>
   <si>
     <t xml:space="preserve">CHICLAYO</t>
   </si>
   <si>
+    <t xml:space="preserve">2.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.305398</t>
+  </si>
+  <si>
     <t xml:space="preserve">140200</t>
   </si>
   <si>
     <t xml:space="preserve">FERRENAFE</t>
   </si>
   <si>
+    <t xml:space="preserve">32.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.806079</t>
+  </si>
+  <si>
     <t xml:space="preserve">140300</t>
   </si>
   <si>
     <t xml:space="preserve">LAMBAYEQUE</t>
   </si>
   <si>
+    <t xml:space="preserve">2.98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.495739</t>
+  </si>
+  <si>
     <t xml:space="preserve">150100</t>
   </si>
   <si>
     <t xml:space="preserve">LIMA</t>
   </si>
   <si>
+    <t xml:space="preserve">10.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8414796</t>
+  </si>
+  <si>
     <t xml:space="preserve">150200</t>
   </si>
   <si>
     <t xml:space="preserve">BARRANCA</t>
   </si>
   <si>
+    <t xml:space="preserve">2.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.801658</t>
+  </si>
+  <si>
     <t xml:space="preserve">150300</t>
   </si>
   <si>
     <t xml:space="preserve">CAJATAMBO</t>
   </si>
   <si>
+    <t xml:space="preserve">6.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.031646</t>
+  </si>
+  <si>
     <t xml:space="preserve">150400</t>
   </si>
   <si>
     <t xml:space="preserve">CANTA</t>
   </si>
   <si>
+    <t xml:space="preserve">3.69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.477444</t>
+  </si>
+  <si>
     <t xml:space="preserve">150500</t>
   </si>
   <si>
     <t xml:space="preserve">CANETE</t>
   </si>
   <si>
+    <t xml:space="preserve">11.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.942219</t>
+  </si>
+  <si>
     <t xml:space="preserve">150600</t>
   </si>
   <si>
     <t xml:space="preserve">HUARAL</t>
   </si>
   <si>
+    <t xml:space="preserve">15.858376</t>
+  </si>
+  <si>
     <t xml:space="preserve">150700</t>
   </si>
   <si>
     <t xml:space="preserve">HUAROCHIRI</t>
   </si>
   <si>
+    <t xml:space="preserve">24.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.154327</t>
+  </si>
+  <si>
     <t xml:space="preserve">150800</t>
   </si>
   <si>
     <t xml:space="preserve">HUAURA</t>
   </si>
   <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.849094</t>
+  </si>
+  <si>
     <t xml:space="preserve">150900</t>
   </si>
   <si>
     <t xml:space="preserve">OYON</t>
   </si>
   <si>
+    <t xml:space="preserve">4.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.277411</t>
+  </si>
+  <si>
     <t xml:space="preserve">151000</t>
   </si>
   <si>
     <t xml:space="preserve">YAUYOS</t>
   </si>
   <si>
+    <t xml:space="preserve">28.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.040523</t>
+  </si>
+  <si>
     <t xml:space="preserve">160100</t>
   </si>
   <si>
     <t xml:space="preserve">MAYNAS</t>
   </si>
   <si>
+    <t xml:space="preserve">24.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.595561</t>
+  </si>
+  <si>
     <t xml:space="preserve">160200</t>
   </si>
   <si>
     <t xml:space="preserve">ALTO AMAZONAS</t>
   </si>
   <si>
+    <t xml:space="preserve">31.50458</t>
+  </si>
+  <si>
     <t xml:space="preserve">160300</t>
   </si>
   <si>
     <t xml:space="preserve">LORETO</t>
   </si>
   <si>
+    <t xml:space="preserve">31.224037</t>
+  </si>
+  <si>
     <t xml:space="preserve">160400</t>
   </si>
   <si>
     <t xml:space="preserve">MARISCAL RAMON CASTILLA</t>
   </si>
   <si>
+    <t xml:space="preserve">31.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.425798</t>
+  </si>
+  <si>
     <t xml:space="preserve">160500</t>
   </si>
   <si>
     <t xml:space="preserve">REQUENA</t>
   </si>
   <si>
+    <t xml:space="preserve">31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.896181</t>
+  </si>
+  <si>
     <t xml:space="preserve">160600</t>
   </si>
   <si>
     <t xml:space="preserve">UCAYALI</t>
   </si>
   <si>
+    <t xml:space="preserve">35.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.829523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATEM DEL MARANON</t>
+  </si>
+  <si>
     <t xml:space="preserve">170100</t>
   </si>
   <si>
     <t xml:space="preserve">TAMBOPATA</t>
   </si>
   <si>
+    <t xml:space="preserve">2.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.664907</t>
+  </si>
+  <si>
     <t xml:space="preserve">170200</t>
   </si>
   <si>
     <t xml:space="preserve">MANU</t>
   </si>
   <si>
+    <t xml:space="preserve">13.73293</t>
+  </si>
+  <si>
     <t xml:space="preserve">170300</t>
   </si>
   <si>
     <t xml:space="preserve">TAHUAMANU</t>
   </si>
   <si>
+    <t xml:space="preserve">9.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.659</t>
+  </si>
+  <si>
     <t xml:space="preserve">180100</t>
   </si>
   <si>
     <t xml:space="preserve">MARISCAL NIETO</t>
   </si>
   <si>
+    <t xml:space="preserve">2.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2026345</t>
+  </si>
+  <si>
     <t xml:space="preserve">180200</t>
   </si>
   <si>
     <t xml:space="preserve">GENERAL SANCHEZ CERRO</t>
   </si>
   <si>
+    <t xml:space="preserve">11.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.921479</t>
+  </si>
+  <si>
     <t xml:space="preserve">180300</t>
   </si>
   <si>
     <t xml:space="preserve">ILO</t>
   </si>
   <si>
+    <t xml:space="preserve">2.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1439818</t>
+  </si>
+  <si>
     <t xml:space="preserve">190100</t>
   </si>
   <si>
     <t xml:space="preserve">PASCO</t>
   </si>
   <si>
+    <t xml:space="preserve">38.862711</t>
+  </si>
+  <si>
     <t xml:space="preserve">190200</t>
   </si>
   <si>
     <t xml:space="preserve">DANIEL ALCIDES CARRION</t>
   </si>
   <si>
+    <t xml:space="preserve">29.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.00097</t>
+  </si>
+  <si>
     <t xml:space="preserve">190300</t>
   </si>
   <si>
     <t xml:space="preserve">OXAPAMPA</t>
   </si>
   <si>
+    <t xml:space="preserve">23.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.506873</t>
+  </si>
+  <si>
     <t xml:space="preserve">200100</t>
   </si>
   <si>
     <t xml:space="preserve">PIURA</t>
   </si>
   <si>
+    <t xml:space="preserve">2.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.585733</t>
+  </si>
+  <si>
     <t xml:space="preserve">200200</t>
   </si>
   <si>
     <t xml:space="preserve">AYABACA</t>
   </si>
   <si>
+    <t xml:space="preserve">33.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.389937</t>
+  </si>
+  <si>
     <t xml:space="preserve">200300</t>
   </si>
   <si>
     <t xml:space="preserve">HUANCABAMBA</t>
   </si>
   <si>
+    <t xml:space="preserve">41.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.708586</t>
+  </si>
+  <si>
     <t xml:space="preserve">200400</t>
   </si>
   <si>
     <t xml:space="preserve">MORROPON</t>
   </si>
   <si>
+    <t xml:space="preserve">2.93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.869871</t>
+  </si>
+  <si>
     <t xml:space="preserve">200500</t>
   </si>
   <si>
     <t xml:space="preserve">PAITA</t>
   </si>
   <si>
+    <t xml:space="preserve">17.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.968354</t>
+  </si>
+  <si>
     <t xml:space="preserve">200600</t>
   </si>
   <si>
     <t xml:space="preserve">SULLANA</t>
   </si>
   <si>
+    <t xml:space="preserve">14.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.790551</t>
+  </si>
+  <si>
     <t xml:space="preserve">200700</t>
   </si>
   <si>
     <t xml:space="preserve">TALARA</t>
   </si>
   <si>
+    <t xml:space="preserve">17.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.666118</t>
+  </si>
+  <si>
     <t xml:space="preserve">200800</t>
   </si>
   <si>
     <t xml:space="preserve">SECHURA</t>
   </si>
   <si>
+    <t xml:space="preserve">3.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.070005</t>
+  </si>
+  <si>
     <t xml:space="preserve">210100</t>
   </si>
   <si>
     <t xml:space="preserve">PUNO</t>
   </si>
   <si>
+    <t xml:space="preserve">36.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.621076</t>
+  </si>
+  <si>
     <t xml:space="preserve">210200</t>
   </si>
   <si>
     <t xml:space="preserve">AZANGARO</t>
   </si>
   <si>
+    <t xml:space="preserve">45.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.79674</t>
+  </si>
+  <si>
     <t xml:space="preserve">210300</t>
   </si>
   <si>
     <t xml:space="preserve">CARABAYA</t>
   </si>
   <si>
+    <t xml:space="preserve">52.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.263158</t>
+  </si>
+  <si>
     <t xml:space="preserve">210400</t>
   </si>
   <si>
     <t xml:space="preserve">CHUCUITO</t>
   </si>
   <si>
+    <t xml:space="preserve">23.142773</t>
+  </si>
+  <si>
     <t xml:space="preserve">210500</t>
   </si>
   <si>
     <t xml:space="preserve">EL COLLAO</t>
   </si>
   <si>
+    <t xml:space="preserve">25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.363288</t>
+  </si>
+  <si>
     <t xml:space="preserve">210600</t>
   </si>
   <si>
     <t xml:space="preserve">HUANCANE</t>
   </si>
   <si>
+    <t xml:space="preserve">30.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.635078</t>
+  </si>
+  <si>
     <t xml:space="preserve">210700</t>
   </si>
   <si>
     <t xml:space="preserve">LAMPA</t>
   </si>
   <si>
+    <t xml:space="preserve">26.746336</t>
+  </si>
+  <si>
     <t xml:space="preserve">210800</t>
   </si>
   <si>
     <t xml:space="preserve">MELGAR</t>
   </si>
   <si>
+    <t xml:space="preserve">39.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.25788</t>
+  </si>
+  <si>
     <t xml:space="preserve">210900</t>
   </si>
   <si>
     <t xml:space="preserve">MOHO</t>
   </si>
   <si>
+    <t xml:space="preserve">32.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.995372</t>
+  </si>
+  <si>
     <t xml:space="preserve">211000</t>
   </si>
   <si>
     <t xml:space="preserve">SAN ANTONIO DE PUTINA</t>
   </si>
   <si>
+    <t xml:space="preserve">40.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.402547</t>
+  </si>
+  <si>
     <t xml:space="preserve">211100</t>
   </si>
   <si>
     <t xml:space="preserve">SAN ROMAN</t>
   </si>
   <si>
+    <t xml:space="preserve">26.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.946029</t>
+  </si>
+  <si>
     <t xml:space="preserve">211200</t>
   </si>
   <si>
     <t xml:space="preserve">SANDIA</t>
   </si>
   <si>
+    <t xml:space="preserve">36.921322</t>
+  </si>
+  <si>
     <t xml:space="preserve">211300</t>
   </si>
   <si>
     <t xml:space="preserve">YUNGUYO</t>
   </si>
   <si>
+    <t xml:space="preserve">19.578919</t>
+  </si>
+  <si>
     <t xml:space="preserve">220100</t>
   </si>
   <si>
     <t xml:space="preserve">MOYOBAMBA</t>
   </si>
   <si>
+    <t xml:space="preserve">23.284347</t>
+  </si>
+  <si>
     <t xml:space="preserve">220200</t>
   </si>
   <si>
     <t xml:space="preserve">BELLAVISTA</t>
   </si>
   <si>
+    <t xml:space="preserve">27.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.695764</t>
+  </si>
+  <si>
     <t xml:space="preserve">220300</t>
   </si>
   <si>
     <t xml:space="preserve">EL DORADO</t>
   </si>
   <si>
+    <t xml:space="preserve">3.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.618165</t>
+  </si>
+  <si>
     <t xml:space="preserve">220400</t>
   </si>
   <si>
     <t xml:space="preserve">HUALLAGA</t>
   </si>
   <si>
+    <t xml:space="preserve">2.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.172389</t>
+  </si>
+  <si>
     <t xml:space="preserve">220500</t>
   </si>
   <si>
     <t xml:space="preserve">LAMAS</t>
   </si>
   <si>
+    <t xml:space="preserve">26.881291</t>
+  </si>
+  <si>
     <t xml:space="preserve">220600</t>
   </si>
   <si>
     <t xml:space="preserve">MARISCAL CACERES</t>
   </si>
   <si>
+    <t xml:space="preserve">22.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.329468</t>
+  </si>
+  <si>
     <t xml:space="preserve">220700</t>
   </si>
   <si>
     <t xml:space="preserve">PICOTA</t>
   </si>
   <si>
+    <t xml:space="preserve">20.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.531336</t>
+  </si>
+  <si>
     <t xml:space="preserve">220800</t>
   </si>
   <si>
     <t xml:space="preserve">RIOJA</t>
   </si>
   <si>
+    <t xml:space="preserve">24.325982</t>
+  </si>
+  <si>
     <t xml:space="preserve">220900</t>
   </si>
   <si>
     <t xml:space="preserve">SAN MARTIN</t>
   </si>
   <si>
+    <t xml:space="preserve">21.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.462078</t>
+  </si>
+  <si>
     <t xml:space="preserve">221000</t>
   </si>
   <si>
     <t xml:space="preserve">TOCACHE</t>
   </si>
   <si>
+    <t xml:space="preserve">22.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.519135</t>
+  </si>
+  <si>
     <t xml:space="preserve">230100</t>
   </si>
   <si>
     <t xml:space="preserve">TACNA</t>
   </si>
   <si>
+    <t xml:space="preserve">2.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.106944</t>
+  </si>
+  <si>
     <t xml:space="preserve">230200</t>
   </si>
   <si>
     <t xml:space="preserve">CANDARAVE</t>
   </si>
   <si>
+    <t xml:space="preserve">2.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8259494</t>
+  </si>
+  <si>
     <t xml:space="preserve">230300</t>
   </si>
   <si>
     <t xml:space="preserve">JORGE BASADRE</t>
   </si>
   <si>
+    <t xml:space="preserve">2.71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6696296</t>
+  </si>
+  <si>
     <t xml:space="preserve">230400</t>
   </si>
   <si>
     <t xml:space="preserve">TARATA</t>
   </si>
   <si>
+    <t xml:space="preserve">19.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0400729</t>
+  </si>
+  <si>
     <t xml:space="preserve">240100</t>
   </si>
   <si>
     <t xml:space="preserve">TUMBES</t>
   </si>
   <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.691337</t>
+  </si>
+  <si>
     <t xml:space="preserve">240200</t>
   </si>
   <si>
     <t xml:space="preserve">CONTRALMIRANTE VILLAR</t>
   </si>
   <si>
+    <t xml:space="preserve">11.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.206156</t>
+  </si>
+  <si>
     <t xml:space="preserve">240300</t>
   </si>
   <si>
     <t xml:space="preserve">ZARUMILLA</t>
   </si>
   <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.789823</t>
+  </si>
+  <si>
     <t xml:space="preserve">250100</t>
   </si>
   <si>
     <t xml:space="preserve">CORONEL PORTILLO</t>
   </si>
   <si>
+    <t xml:space="preserve">27.596343</t>
+  </si>
+  <si>
     <t xml:space="preserve">250200</t>
   </si>
   <si>
     <t xml:space="preserve">ATALAYA</t>
   </si>
   <si>
+    <t xml:space="preserve">47.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.037636</t>
+  </si>
+  <si>
     <t xml:space="preserve">250300</t>
   </si>
   <si>
     <t xml:space="preserve">PADRE ABAD</t>
   </si>
   <si>
+    <t xml:space="preserve">33.732956</t>
+  </si>
+  <si>
     <t xml:space="preserve">250400</t>
   </si>
   <si>
     <t xml:space="preserve">PURUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.606504</t>
   </si>
 </sst>
 </file>
@@ -1546,3295 +2926,3312 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="E2" t="n">
-        <v>20.658649</v>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="E3" t="n">
-        <v>40.005875</v>
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="E4" t="n">
-        <v>30.370397</v>
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="E5" t="n">
-        <v>56.755867</v>
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="E6" t="n">
-        <v>30.627197</v>
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="E7" t="n">
-        <v>23.47929</v>
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="E8" t="n">
-        <v>32.489951</v>
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="n">
-        <v>23</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="E9" t="n">
-        <v>26.62561</v>
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="D10" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="E10" t="n">
-        <v>38.892857</v>
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="n">
-        <v>32</v>
-      </c>
-      <c r="D11" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="E11" t="n">
-        <v>47.363411</v>
+        <v>51</v>
+      </c>
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="D12" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="E12" t="n">
-        <v>39.466231</v>
+        <v>56</v>
+      </c>
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="D13" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="E13" t="n">
-        <v>36.188759</v>
+        <v>61</v>
+      </c>
+      <c r="C13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="D14" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="E14" t="n">
-        <v>38.027812</v>
+        <v>66</v>
+      </c>
+      <c r="C14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="D15" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="E15" t="n">
-        <v>48.103583</v>
+        <v>71</v>
+      </c>
+      <c r="C15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="D16" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="E16" t="n">
-        <v>14.584619</v>
+        <v>76</v>
+      </c>
+      <c r="C16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="D17" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="E17" t="n">
-        <v>38.919951</v>
+        <v>80</v>
+      </c>
+      <c r="C17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" t="n">
-        <v>24.9</v>
-      </c>
-      <c r="D18" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="E18" t="n">
-        <v>46.115754</v>
+        <v>84</v>
+      </c>
+      <c r="C18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="D19" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="E19" t="n">
-        <v>14.349451</v>
+        <v>89</v>
+      </c>
+      <c r="C19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="D20" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="E20" t="n">
-        <v>41.521129</v>
+        <v>94</v>
+      </c>
+      <c r="C20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="D21" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="E21" t="n">
-        <v>48.9683</v>
+        <v>99</v>
+      </c>
+      <c r="C21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" t="s">
+        <v>101</v>
+      </c>
+      <c r="E21" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="D22" t="n">
-        <v>3</v>
-      </c>
-      <c r="E22" t="n">
-        <v>30.741176</v>
+        <v>104</v>
+      </c>
+      <c r="C22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" t="s">
+        <v>106</v>
+      </c>
+      <c r="E22" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="D23" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="E23" t="n">
-        <v>43.79887</v>
+        <v>109</v>
+      </c>
+      <c r="C23" t="s">
+        <v>110</v>
+      </c>
+      <c r="D23" t="s">
+        <v>111</v>
+      </c>
+      <c r="E23" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="D24" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="E24" t="n">
-        <v>50.016149</v>
+        <v>114</v>
+      </c>
+      <c r="C24" t="s">
+        <v>115</v>
+      </c>
+      <c r="D24" t="s">
+        <v>116</v>
+      </c>
+      <c r="E24" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>118</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="D25" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="E25" t="n">
-        <v>33.766586</v>
+        <v>119</v>
+      </c>
+      <c r="C25" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" t="s">
+        <v>121</v>
+      </c>
+      <c r="E25" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="D26" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="E26" t="n">
-        <v>9.8233702</v>
+        <v>124</v>
+      </c>
+      <c r="C26" t="s">
+        <v>105</v>
+      </c>
+      <c r="D26" t="s">
+        <v>125</v>
+      </c>
+      <c r="E26" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>127</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="D27" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="E27" t="n">
-        <v>49.083448</v>
+        <v>128</v>
+      </c>
+      <c r="C27" t="s">
+        <v>129</v>
+      </c>
+      <c r="D27" t="s">
+        <v>116</v>
+      </c>
+      <c r="E27" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>131</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="D28" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="E28" t="n">
-        <v>37.691281</v>
+        <v>132</v>
+      </c>
+      <c r="C28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D28" t="s">
+        <v>134</v>
+      </c>
+      <c r="E28" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>136</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="D29" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="E29" t="n">
-        <v>24.420776</v>
+        <v>137</v>
+      </c>
+      <c r="C29" t="s">
+        <v>115</v>
+      </c>
+      <c r="D29" t="s">
+        <v>138</v>
+      </c>
+      <c r="E29" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>140</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="D30" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="E30" t="n">
-        <v>37.054541</v>
+        <v>141</v>
+      </c>
+      <c r="C30" t="s">
+        <v>142</v>
+      </c>
+      <c r="D30" t="s">
+        <v>96</v>
+      </c>
+      <c r="E30" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>144</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="D31" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="E31" t="n">
-        <v>40.430951</v>
+        <v>145</v>
+      </c>
+      <c r="C31" t="s">
+        <v>146</v>
+      </c>
+      <c r="D31" t="s">
+        <v>147</v>
+      </c>
+      <c r="E31" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>65</v>
+        <v>149</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
-      </c>
-      <c r="C32" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="D32" t="n">
-        <v>4</v>
-      </c>
-      <c r="E32" t="n">
-        <v>36.905958</v>
+        <v>150</v>
+      </c>
+      <c r="C32" t="s">
+        <v>151</v>
+      </c>
+      <c r="D32" t="s">
+        <v>152</v>
+      </c>
+      <c r="E32" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>154</v>
       </c>
       <c r="B33" t="s">
-        <v>68</v>
-      </c>
-      <c r="C33" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="D33" t="n">
-        <v>4.68</v>
-      </c>
-      <c r="E33" t="n">
-        <v>50.229112</v>
+        <v>155</v>
+      </c>
+      <c r="C33" t="s">
+        <v>156</v>
+      </c>
+      <c r="D33" t="s">
+        <v>157</v>
+      </c>
+      <c r="E33" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>69</v>
+        <v>159</v>
       </c>
       <c r="B34" t="s">
-        <v>70</v>
-      </c>
-      <c r="C34" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="D34" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="E34" t="n">
-        <v>38.923966</v>
+        <v>160</v>
+      </c>
+      <c r="C34" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" t="s">
+        <v>161</v>
+      </c>
+      <c r="E34" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>71</v>
+        <v>163</v>
       </c>
       <c r="B35" t="s">
-        <v>72</v>
-      </c>
-      <c r="C35" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="D35" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="E35" t="n">
-        <v>43.535798</v>
+        <v>164</v>
+      </c>
+      <c r="C35" t="s">
+        <v>165</v>
+      </c>
+      <c r="D35" t="s">
+        <v>166</v>
+      </c>
+      <c r="E35" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>73</v>
+        <v>168</v>
       </c>
       <c r="B36" t="s">
-        <v>74</v>
-      </c>
-      <c r="C36" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="D36" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="E36" t="n">
-        <v>12.85136</v>
+        <v>169</v>
+      </c>
+      <c r="C36" t="s">
+        <v>170</v>
+      </c>
+      <c r="D36" t="s">
+        <v>171</v>
+      </c>
+      <c r="E36" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>75</v>
+        <v>173</v>
       </c>
       <c r="B37" t="s">
-        <v>76</v>
-      </c>
-      <c r="C37" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="D37" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="E37" t="n">
-        <v>12.846474</v>
+        <v>174</v>
+      </c>
+      <c r="C37" t="s">
+        <v>175</v>
+      </c>
+      <c r="D37" t="s">
+        <v>176</v>
+      </c>
+      <c r="E37" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>77</v>
+        <v>178</v>
       </c>
       <c r="B38" t="s">
-        <v>78</v>
-      </c>
-      <c r="C38" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="D38" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="E38" t="n">
-        <v>12.689372</v>
+        <v>179</v>
+      </c>
+      <c r="C38" t="s">
+        <v>105</v>
+      </c>
+      <c r="D38" t="s">
+        <v>180</v>
+      </c>
+      <c r="E38" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>79</v>
+        <v>182</v>
       </c>
       <c r="B39" t="s">
-        <v>80</v>
-      </c>
-      <c r="C39" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="D39" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="E39" t="n">
-        <v>12.3565</v>
+        <v>183</v>
+      </c>
+      <c r="C39" t="s">
+        <v>184</v>
+      </c>
+      <c r="D39" t="s">
+        <v>121</v>
+      </c>
+      <c r="E39" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>81</v>
+        <v>186</v>
       </c>
       <c r="B40" t="s">
-        <v>82</v>
-      </c>
-      <c r="C40" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="D40" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="E40" t="n">
-        <v>12.819912</v>
+        <v>187</v>
+      </c>
+      <c r="C40" t="s">
+        <v>188</v>
+      </c>
+      <c r="D40" t="s">
+        <v>189</v>
+      </c>
+      <c r="E40" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>83</v>
+        <v>191</v>
       </c>
       <c r="B41" t="s">
-        <v>84</v>
-      </c>
-      <c r="C41" t="n">
-        <v>22</v>
-      </c>
-      <c r="D41" t="n">
-        <v>3.51</v>
-      </c>
-      <c r="E41" t="n">
-        <v>12.77101</v>
+        <v>192</v>
+      </c>
+      <c r="C41" t="s">
+        <v>193</v>
+      </c>
+      <c r="D41" t="s">
+        <v>194</v>
+      </c>
+      <c r="E41" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>85</v>
+        <v>196</v>
       </c>
       <c r="B42" t="s">
-        <v>86</v>
-      </c>
-      <c r="C42" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="D42" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="E42" t="n">
-        <v>13.074024</v>
+        <v>197</v>
+      </c>
+      <c r="C42" t="s">
+        <v>198</v>
+      </c>
+      <c r="D42" t="s">
+        <v>199</v>
+      </c>
+      <c r="E42" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>87</v>
+        <v>201</v>
       </c>
       <c r="B43" t="s">
-        <v>88</v>
-      </c>
-      <c r="C43" t="n">
-        <v>25.1</v>
-      </c>
-      <c r="D43" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="E43" t="n">
-        <v>12.601857</v>
+        <v>202</v>
+      </c>
+      <c r="C43" t="s">
+        <v>203</v>
+      </c>
+      <c r="D43" t="s">
+        <v>204</v>
+      </c>
+      <c r="E43" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>89</v>
+        <v>206</v>
       </c>
       <c r="B44" t="s">
-        <v>90</v>
-      </c>
-      <c r="C44" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="D44" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="E44" t="n">
-        <v>41.332593</v>
+        <v>207</v>
+      </c>
+      <c r="C44" t="s">
+        <v>208</v>
+      </c>
+      <c r="D44" t="s">
+        <v>209</v>
+      </c>
+      <c r="E44" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>91</v>
+        <v>211</v>
       </c>
       <c r="B45" t="s">
-        <v>92</v>
-      </c>
-      <c r="C45" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="D45" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="E45" t="n">
-        <v>41.666833</v>
+        <v>212</v>
+      </c>
+      <c r="C45" t="s">
+        <v>213</v>
+      </c>
+      <c r="D45" t="s">
+        <v>214</v>
+      </c>
+      <c r="E45" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>93</v>
+        <v>216</v>
       </c>
       <c r="B46" t="s">
-        <v>94</v>
-      </c>
-      <c r="C46" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="D46" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="E46" t="n">
-        <v>40.549598</v>
+        <v>217</v>
+      </c>
+      <c r="C46" t="s">
+        <v>218</v>
+      </c>
+      <c r="D46" t="s">
+        <v>219</v>
+      </c>
+      <c r="E46" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>95</v>
+        <v>221</v>
       </c>
       <c r="B47" t="s">
-        <v>96</v>
-      </c>
-      <c r="C47" t="n">
-        <v>24.8</v>
-      </c>
-      <c r="D47" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="E47" t="n">
-        <v>42.002134</v>
+        <v>222</v>
+      </c>
+      <c r="C47" t="s">
+        <v>223</v>
+      </c>
+      <c r="D47" t="s">
+        <v>224</v>
+      </c>
+      <c r="E47" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>97</v>
+        <v>226</v>
       </c>
       <c r="B48" t="s">
-        <v>98</v>
-      </c>
-      <c r="C48" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="D48" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="E48" t="n">
-        <v>42.306407</v>
+        <v>227</v>
+      </c>
+      <c r="C48" t="s">
+        <v>228</v>
+      </c>
+      <c r="D48" t="s">
+        <v>229</v>
+      </c>
+      <c r="E48" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>99</v>
+        <v>231</v>
       </c>
       <c r="B49" t="s">
-        <v>100</v>
-      </c>
-      <c r="C49" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="D49" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="E49" t="n">
-        <v>41.277724</v>
+        <v>232</v>
+      </c>
+      <c r="C49" t="s">
+        <v>233</v>
+      </c>
+      <c r="D49" t="s">
+        <v>161</v>
+      </c>
+      <c r="E49" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>101</v>
+        <v>235</v>
       </c>
       <c r="B50" t="s">
-        <v>102</v>
-      </c>
-      <c r="C50" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="D50" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="E50" t="n">
-        <v>41.820746</v>
+        <v>236</v>
+      </c>
+      <c r="C50" t="s">
+        <v>237</v>
+      </c>
+      <c r="D50" t="s">
+        <v>238</v>
+      </c>
+      <c r="E50" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>103</v>
+        <v>240</v>
       </c>
       <c r="B51" t="s">
-        <v>104</v>
-      </c>
-      <c r="C51" t="n">
-        <v>19</v>
-      </c>
-      <c r="D51" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="E51" t="n">
-        <v>41.873934</v>
+        <v>241</v>
+      </c>
+      <c r="C51" t="s">
+        <v>242</v>
+      </c>
+      <c r="D51" t="s">
+        <v>243</v>
+      </c>
+      <c r="E51" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>105</v>
+        <v>245</v>
       </c>
       <c r="B52" t="s">
-        <v>106</v>
-      </c>
-      <c r="C52" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="D52" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="E52" t="n">
-        <v>40.874325</v>
+        <v>246</v>
+      </c>
+      <c r="C52" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52" t="s">
+        <v>247</v>
+      </c>
+      <c r="E52" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>107</v>
+        <v>249</v>
       </c>
       <c r="B53" t="s">
-        <v>108</v>
-      </c>
-      <c r="C53" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="D53" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="E53" t="n">
-        <v>41.280958</v>
+        <v>250</v>
+      </c>
+      <c r="C53" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" t="s">
+        <v>251</v>
+      </c>
+      <c r="E53" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>109</v>
+        <v>253</v>
       </c>
       <c r="B54" t="s">
-        <v>110</v>
-      </c>
-      <c r="C54" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="D54" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="E54" t="n">
-        <v>41.145954</v>
+        <v>254</v>
+      </c>
+      <c r="C54" t="s">
+        <v>100</v>
+      </c>
+      <c r="D54" t="s">
+        <v>255</v>
+      </c>
+      <c r="E54" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>111</v>
+        <v>257</v>
       </c>
       <c r="B55" t="s">
-        <v>112</v>
-      </c>
-      <c r="C55" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="D55" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="E55" t="n">
-        <v>34.269162</v>
+        <v>258</v>
+      </c>
+      <c r="C55" t="s">
+        <v>259</v>
+      </c>
+      <c r="D55" t="s">
+        <v>260</v>
+      </c>
+      <c r="E55" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>113</v>
+        <v>262</v>
       </c>
       <c r="B56" t="s">
-        <v>114</v>
-      </c>
-      <c r="C56" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="D56" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="E56" t="n">
-        <v>47.726994</v>
+        <v>263</v>
+      </c>
+      <c r="C56" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" t="s">
+        <v>264</v>
+      </c>
+      <c r="E56" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>115</v>
+        <v>266</v>
       </c>
       <c r="B57" t="s">
-        <v>116</v>
-      </c>
-      <c r="C57" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="D57" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="E57" t="n">
-        <v>47.280156</v>
+        <v>267</v>
+      </c>
+      <c r="C57" t="s">
+        <v>268</v>
+      </c>
+      <c r="D57" t="s">
+        <v>269</v>
+      </c>
+      <c r="E57" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>117</v>
+        <v>271</v>
       </c>
       <c r="B58" t="s">
-        <v>118</v>
-      </c>
-      <c r="C58" t="n">
-        <v>19.6</v>
-      </c>
-      <c r="D58" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="E58" t="n">
-        <v>43.434846</v>
+        <v>272</v>
+      </c>
+      <c r="C58" t="s">
+        <v>273</v>
+      </c>
+      <c r="D58" t="s">
+        <v>209</v>
+      </c>
+      <c r="E58" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>119</v>
+        <v>275</v>
       </c>
       <c r="B59" t="s">
-        <v>120</v>
-      </c>
-      <c r="C59" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="D59" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="E59" t="n">
-        <v>40.023686</v>
+        <v>276</v>
+      </c>
+      <c r="C59" t="s">
+        <v>277</v>
+      </c>
+      <c r="D59" t="s">
+        <v>278</v>
+      </c>
+      <c r="E59" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>121</v>
+        <v>280</v>
       </c>
       <c r="B60" t="s">
-        <v>122</v>
-      </c>
-      <c r="C60" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="D60" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="E60" t="n">
-        <v>46.300962</v>
+        <v>281</v>
+      </c>
+      <c r="C60" t="s">
+        <v>282</v>
+      </c>
+      <c r="D60" t="s">
+        <v>283</v>
+      </c>
+      <c r="E60" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>123</v>
+        <v>285</v>
       </c>
       <c r="B61" t="s">
-        <v>124</v>
-      </c>
-      <c r="C61" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="D61" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="E61" t="n">
-        <v>45.623709</v>
+        <v>286</v>
+      </c>
+      <c r="C61" t="s">
+        <v>287</v>
+      </c>
+      <c r="D61" t="s">
+        <v>288</v>
+      </c>
+      <c r="E61" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>125</v>
+        <v>290</v>
       </c>
       <c r="B62" t="s">
-        <v>126</v>
-      </c>
-      <c r="C62" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="D62" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="E62" t="n">
-        <v>42.28635</v>
+        <v>291</v>
+      </c>
+      <c r="C62" t="s">
+        <v>292</v>
+      </c>
+      <c r="D62" t="s">
+        <v>293</v>
+      </c>
+      <c r="E62" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>127</v>
+        <v>295</v>
       </c>
       <c r="B63" t="s">
-        <v>128</v>
-      </c>
-      <c r="C63" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="D63" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="E63" t="n">
-        <v>46.450348</v>
+        <v>296</v>
+      </c>
+      <c r="C63" t="s">
+        <v>297</v>
+      </c>
+      <c r="D63" t="s">
+        <v>298</v>
+      </c>
+      <c r="E63" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>129</v>
+        <v>300</v>
       </c>
       <c r="B64" t="s">
-        <v>130</v>
-      </c>
-      <c r="C64" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="D64" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="E64" t="n">
-        <v>45.997012</v>
+        <v>301</v>
+      </c>
+      <c r="C64" t="s">
+        <v>302</v>
+      </c>
+      <c r="D64" t="s">
+        <v>269</v>
+      </c>
+      <c r="E64" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>131</v>
+        <v>304</v>
       </c>
       <c r="B65" t="s">
-        <v>132</v>
-      </c>
-      <c r="C65" t="n">
-        <v>19</v>
-      </c>
-      <c r="D65" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="E65" t="n">
-        <v>40.793651</v>
+        <v>305</v>
+      </c>
+      <c r="C65" t="s">
+        <v>242</v>
+      </c>
+      <c r="D65" t="s">
+        <v>306</v>
+      </c>
+      <c r="E65" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>133</v>
+        <v>308</v>
       </c>
       <c r="B66" t="s">
-        <v>134</v>
-      </c>
-      <c r="C66" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="D66" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="E66" t="n">
-        <v>44.258271</v>
+        <v>309</v>
+      </c>
+      <c r="C66" t="s">
+        <v>310</v>
+      </c>
+      <c r="D66" t="s">
+        <v>311</v>
+      </c>
+      <c r="E66" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>135</v>
+        <v>313</v>
       </c>
       <c r="B67" t="s">
-        <v>136</v>
-      </c>
-      <c r="C67" t="n">
-        <v>21</v>
-      </c>
-      <c r="D67" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="E67" t="n">
-        <v>38.786323</v>
+        <v>314</v>
+      </c>
+      <c r="C67" t="s">
+        <v>315</v>
+      </c>
+      <c r="D67" t="s">
+        <v>316</v>
+      </c>
+      <c r="E67" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>137</v>
+        <v>318</v>
       </c>
       <c r="B68" t="s">
-        <v>138</v>
-      </c>
-      <c r="C68" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="D68" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="E68" t="n">
-        <v>7.5</v>
+        <v>319</v>
+      </c>
+      <c r="C68" t="s">
+        <v>320</v>
+      </c>
+      <c r="D68" t="s">
+        <v>321</v>
+      </c>
+      <c r="E68" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>139</v>
+        <v>323</v>
       </c>
       <c r="B69" t="s">
-        <v>140</v>
-      </c>
-      <c r="C69" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="D69" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="E69" t="n">
-        <v>20.697917</v>
+        <v>324</v>
+      </c>
+      <c r="C69" t="s">
+        <v>325</v>
+      </c>
+      <c r="D69" t="s">
+        <v>326</v>
+      </c>
+      <c r="E69" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>141</v>
+        <v>328</v>
       </c>
       <c r="B70" t="s">
-        <v>142</v>
-      </c>
-      <c r="C70" t="n">
-        <v>44</v>
-      </c>
-      <c r="D70" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="E70" t="n">
-        <v>63.590854</v>
+        <v>329</v>
+      </c>
+      <c r="C70" t="s">
+        <v>330</v>
+      </c>
+      <c r="D70" t="s">
+        <v>331</v>
+      </c>
+      <c r="E70" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>143</v>
+        <v>333</v>
       </c>
       <c r="B71" t="s">
-        <v>144</v>
-      </c>
-      <c r="C71" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="D71" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="E71" t="n">
-        <v>32.994515</v>
+        <v>334</v>
+      </c>
+      <c r="C71" t="s">
+        <v>335</v>
+      </c>
+      <c r="D71" t="s">
+        <v>316</v>
+      </c>
+      <c r="E71" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>145</v>
+        <v>337</v>
       </c>
       <c r="B72" t="s">
-        <v>146</v>
-      </c>
-      <c r="C72" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="D72" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="E72" t="n">
-        <v>41.932087</v>
+        <v>338</v>
+      </c>
+      <c r="C72" t="s">
+        <v>339</v>
+      </c>
+      <c r="D72" t="s">
+        <v>340</v>
+      </c>
+      <c r="E72" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>147</v>
+        <v>342</v>
       </c>
       <c r="B73" t="s">
-        <v>148</v>
-      </c>
-      <c r="C73" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="D73" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="E73" t="n">
-        <v>64.157638</v>
+        <v>343</v>
+      </c>
+      <c r="C73" t="s">
+        <v>344</v>
+      </c>
+      <c r="D73" t="s">
+        <v>345</v>
+      </c>
+      <c r="E73" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>149</v>
+        <v>347</v>
       </c>
       <c r="B74" t="s">
-        <v>150</v>
-      </c>
-      <c r="C74" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="D74" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="E74" t="n">
-        <v>41.923469</v>
+        <v>348</v>
+      </c>
+      <c r="C74" t="s">
+        <v>72</v>
+      </c>
+      <c r="D74" t="s">
+        <v>349</v>
+      </c>
+      <c r="E74" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="B75" t="s">
-        <v>152</v>
-      </c>
-      <c r="C75" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="D75" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="E75" t="n">
-        <v>49.838411</v>
+        <v>352</v>
+      </c>
+      <c r="C75" t="s">
+        <v>353</v>
+      </c>
+      <c r="D75" t="s">
+        <v>354</v>
+      </c>
+      <c r="E75" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>153</v>
+        <v>356</v>
       </c>
       <c r="B76" t="s">
-        <v>154</v>
-      </c>
-      <c r="C76" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="D76" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="E76" t="n">
-        <v>47.064597</v>
+        <v>357</v>
+      </c>
+      <c r="C76" t="s">
+        <v>358</v>
+      </c>
+      <c r="D76" t="s">
+        <v>359</v>
+      </c>
+      <c r="E76" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>155</v>
+        <v>361</v>
       </c>
       <c r="B77" t="s">
-        <v>156</v>
-      </c>
-      <c r="C77" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="D77" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="E77" t="n">
-        <v>31.936549</v>
+        <v>362</v>
+      </c>
+      <c r="C77" t="s">
+        <v>363</v>
+      </c>
+      <c r="D77" t="s">
+        <v>364</v>
+      </c>
+      <c r="E77" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>157</v>
+        <v>366</v>
       </c>
       <c r="B78" t="s">
-        <v>158</v>
-      </c>
-      <c r="C78" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="D78" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E78" t="n">
-        <v>60.453242</v>
+        <v>367</v>
+      </c>
+      <c r="C78" t="s">
+        <v>368</v>
+      </c>
+      <c r="D78" t="s">
+        <v>369</v>
+      </c>
+      <c r="E78" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>159</v>
+        <v>371</v>
       </c>
       <c r="B79" t="s">
-        <v>160</v>
-      </c>
-      <c r="C79" t="n">
-        <v>39.8</v>
-      </c>
-      <c r="D79" t="n">
-        <v>5.27</v>
-      </c>
-      <c r="E79" t="n">
-        <v>59.347618</v>
+        <v>372</v>
+      </c>
+      <c r="C79" t="s">
+        <v>373</v>
+      </c>
+      <c r="D79" t="s">
+        <v>374</v>
+      </c>
+      <c r="E79" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>161</v>
+        <v>376</v>
       </c>
       <c r="B80" t="s">
-        <v>162</v>
-      </c>
-      <c r="C80" t="n">
-        <v>39.1</v>
-      </c>
-      <c r="D80" t="n">
-        <v>4.68</v>
-      </c>
-      <c r="E80" t="n">
-        <v>56.784395</v>
+        <v>377</v>
+      </c>
+      <c r="C80" t="s">
+        <v>378</v>
+      </c>
+      <c r="D80" t="s">
+        <v>157</v>
+      </c>
+      <c r="E80" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>163</v>
+        <v>380</v>
       </c>
       <c r="B81" t="s">
-        <v>164</v>
-      </c>
-      <c r="C81" t="n">
-        <v>17</v>
-      </c>
-      <c r="D81" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="E81" t="n">
-        <v>28.214876</v>
+        <v>381</v>
+      </c>
+      <c r="C81" t="s">
+        <v>382</v>
+      </c>
+      <c r="D81" t="s">
+        <v>383</v>
+      </c>
+      <c r="E81" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>165</v>
+        <v>385</v>
       </c>
       <c r="B82" t="s">
-        <v>166</v>
-      </c>
-      <c r="C82" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="D82" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="E82" t="n">
-        <v>54.014461</v>
+        <v>386</v>
+      </c>
+      <c r="C82" t="s">
+        <v>387</v>
+      </c>
+      <c r="D82" t="s">
+        <v>388</v>
+      </c>
+      <c r="E82" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>167</v>
+        <v>390</v>
       </c>
       <c r="B83" t="s">
-        <v>168</v>
-      </c>
-      <c r="C83" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="D83" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="E83" t="n">
-        <v>55.162966</v>
+        <v>391</v>
+      </c>
+      <c r="C83" t="s">
+        <v>184</v>
+      </c>
+      <c r="D83" t="s">
+        <v>134</v>
+      </c>
+      <c r="E83" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>169</v>
+        <v>393</v>
       </c>
       <c r="B84" t="s">
-        <v>170</v>
-      </c>
-      <c r="C84" t="n">
-        <v>31.4</v>
-      </c>
-      <c r="D84" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="E84" t="n">
-        <v>58.420091</v>
+        <v>394</v>
+      </c>
+      <c r="C84" t="s">
+        <v>395</v>
+      </c>
+      <c r="D84" t="s">
+        <v>111</v>
+      </c>
+      <c r="E84" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>171</v>
+        <v>397</v>
       </c>
       <c r="B85" t="s">
-        <v>172</v>
-      </c>
-      <c r="C85" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="D85" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="E85" t="n">
-        <v>49.199297</v>
+        <v>398</v>
+      </c>
+      <c r="C85" t="s">
+        <v>399</v>
+      </c>
+      <c r="D85" t="s">
+        <v>176</v>
+      </c>
+      <c r="E85" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>173</v>
+        <v>401</v>
       </c>
       <c r="B86" t="s">
-        <v>174</v>
-      </c>
-      <c r="C86" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="D86" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="E86" t="n">
-        <v>57.710753</v>
+        <v>402</v>
+      </c>
+      <c r="C86" t="s">
+        <v>403</v>
+      </c>
+      <c r="D86" t="s">
+        <v>161</v>
+      </c>
+      <c r="E86" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>175</v>
+        <v>405</v>
       </c>
       <c r="B87" t="s">
-        <v>176</v>
-      </c>
-      <c r="C87" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="D87" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="E87" t="n">
-        <v>54.06438</v>
+        <v>406</v>
+      </c>
+      <c r="C87" t="s">
+        <v>407</v>
+      </c>
+      <c r="D87" t="s">
+        <v>408</v>
+      </c>
+      <c r="E87" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>177</v>
+        <v>410</v>
       </c>
       <c r="B88" t="s">
-        <v>178</v>
-      </c>
-      <c r="C88" t="n">
-        <v>24.8</v>
-      </c>
-      <c r="D88" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="E88" t="n">
-        <v>55.101324</v>
+        <v>411</v>
+      </c>
+      <c r="C88" t="s">
+        <v>223</v>
+      </c>
+      <c r="D88" t="s">
+        <v>283</v>
+      </c>
+      <c r="E88" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>179</v>
+        <v>413</v>
       </c>
       <c r="B89" t="s">
-        <v>180</v>
-      </c>
-      <c r="C89" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="D89" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="E89" t="n">
-        <v>44.626331</v>
+        <v>414</v>
+      </c>
+      <c r="C89" t="s">
+        <v>198</v>
+      </c>
+      <c r="D89" t="s">
+        <v>415</v>
+      </c>
+      <c r="E89" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>181</v>
+        <v>417</v>
       </c>
       <c r="B90" t="s">
-        <v>182</v>
-      </c>
-      <c r="C90" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="D90" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="E90" t="n">
-        <v>44.291241</v>
+        <v>418</v>
+      </c>
+      <c r="C90" t="s">
+        <v>419</v>
+      </c>
+      <c r="D90" t="s">
+        <v>420</v>
+      </c>
+      <c r="E90" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>183</v>
+        <v>422</v>
       </c>
       <c r="B91" t="s">
-        <v>184</v>
-      </c>
-      <c r="C91" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="D91" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="E91" t="n">
-        <v>44.239301</v>
+        <v>423</v>
+      </c>
+      <c r="C91" t="s">
+        <v>424</v>
+      </c>
+      <c r="D91" t="s">
+        <v>425</v>
+      </c>
+      <c r="E91" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>185</v>
+        <v>427</v>
       </c>
       <c r="B92" t="s">
-        <v>186</v>
-      </c>
-      <c r="C92" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="D92" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="E92" t="n">
-        <v>43.694486</v>
+        <v>428</v>
+      </c>
+      <c r="C92" t="s">
+        <v>62</v>
+      </c>
+      <c r="D92" t="s">
+        <v>429</v>
+      </c>
+      <c r="E92" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>187</v>
+        <v>431</v>
       </c>
       <c r="B93" t="s">
-        <v>188</v>
-      </c>
-      <c r="C93" t="n">
-        <v>23</v>
-      </c>
-      <c r="D93" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="E93" t="n">
-        <v>43.695277</v>
+        <v>432</v>
+      </c>
+      <c r="C93" t="s">
+        <v>42</v>
+      </c>
+      <c r="D93" t="s">
+        <v>224</v>
+      </c>
+      <c r="E93" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>189</v>
+        <v>434</v>
       </c>
       <c r="B94" t="s">
-        <v>190</v>
-      </c>
-      <c r="C94" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="D94" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="E94" t="n">
-        <v>44.570173</v>
+        <v>435</v>
+      </c>
+      <c r="C94" t="s">
+        <v>436</v>
+      </c>
+      <c r="D94" t="s">
+        <v>437</v>
+      </c>
+      <c r="E94" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>191</v>
+        <v>439</v>
       </c>
       <c r="B95" t="s">
-        <v>192</v>
-      </c>
-      <c r="C95" t="n">
-        <v>36.8</v>
-      </c>
-      <c r="D95" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="E95" t="n">
-        <v>44.173589</v>
+        <v>440</v>
+      </c>
+      <c r="C95" t="s">
+        <v>441</v>
+      </c>
+      <c r="D95" t="s">
+        <v>243</v>
+      </c>
+      <c r="E95" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>193</v>
+        <v>443</v>
       </c>
       <c r="B96" t="s">
-        <v>194</v>
-      </c>
-      <c r="C96" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="D96" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="E96" t="n">
-        <v>43.955331</v>
+        <v>444</v>
+      </c>
+      <c r="C96" t="s">
+        <v>445</v>
+      </c>
+      <c r="D96" t="s">
+        <v>446</v>
+      </c>
+      <c r="E96" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>195</v>
+        <v>448</v>
       </c>
       <c r="B97" t="s">
-        <v>196</v>
-      </c>
-      <c r="C97" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="D97" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="E97" t="n">
-        <v>43.800286</v>
+        <v>449</v>
+      </c>
+      <c r="C97" t="s">
+        <v>450</v>
+      </c>
+      <c r="D97" t="s">
+        <v>293</v>
+      </c>
+      <c r="E97" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>197</v>
+        <v>452</v>
       </c>
       <c r="B98" t="s">
-        <v>198</v>
-      </c>
-      <c r="C98" t="n">
-        <v>24.7</v>
-      </c>
-      <c r="D98" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="E98" t="n">
-        <v>44.119534</v>
+        <v>453</v>
+      </c>
+      <c r="C98" t="s">
+        <v>454</v>
+      </c>
+      <c r="D98" t="s">
+        <v>38</v>
+      </c>
+      <c r="E98" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>199</v>
+        <v>456</v>
       </c>
       <c r="B99" t="s">
-        <v>200</v>
-      </c>
-      <c r="C99" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="D99" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="E99" t="n">
-        <v>43.819129</v>
+        <v>457</v>
+      </c>
+      <c r="C99" t="s">
+        <v>458</v>
+      </c>
+      <c r="D99" t="s">
+        <v>283</v>
+      </c>
+      <c r="E99" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>201</v>
+        <v>460</v>
       </c>
       <c r="B100" t="s">
-        <v>202</v>
-      </c>
-      <c r="C100" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="D100" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="E100" t="n">
-        <v>11.92409</v>
+        <v>461</v>
+      </c>
+      <c r="C100" t="s">
+        <v>462</v>
+      </c>
+      <c r="D100" t="s">
+        <v>463</v>
+      </c>
+      <c r="E100" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>203</v>
+        <v>465</v>
       </c>
       <c r="B101" t="s">
-        <v>204</v>
-      </c>
-      <c r="C101" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="D101" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="E101" t="n">
-        <v>13.960389</v>
+        <v>466</v>
+      </c>
+      <c r="C101" t="s">
+        <v>467</v>
+      </c>
+      <c r="D101" t="s">
+        <v>468</v>
+      </c>
+      <c r="E101" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>205</v>
+        <v>470</v>
       </c>
       <c r="B102" t="s">
-        <v>206</v>
-      </c>
-      <c r="C102" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="D102" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="E102" t="n">
-        <v>8.8035105</v>
+        <v>471</v>
+      </c>
+      <c r="C102" t="s">
+        <v>472</v>
+      </c>
+      <c r="D102" t="s">
+        <v>473</v>
+      </c>
+      <c r="E102" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>207</v>
+        <v>475</v>
       </c>
       <c r="B103" t="s">
-        <v>208</v>
-      </c>
-      <c r="C103" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="D103" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="E103" t="n">
-        <v>10.049524</v>
+        <v>476</v>
+      </c>
+      <c r="C103" t="s">
+        <v>467</v>
+      </c>
+      <c r="D103" t="s">
+        <v>18</v>
+      </c>
+      <c r="E103" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>209</v>
+        <v>478</v>
       </c>
       <c r="B104" t="s">
-        <v>210</v>
-      </c>
-      <c r="C104" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D104" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="E104" t="n">
-        <v>11.6158</v>
+        <v>479</v>
+      </c>
+      <c r="C104" t="s">
+        <v>480</v>
+      </c>
+      <c r="D104" t="s">
+        <v>481</v>
+      </c>
+      <c r="E104" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>211</v>
+        <v>483</v>
       </c>
       <c r="B105" t="s">
-        <v>212</v>
-      </c>
-      <c r="C105" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="D105" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="E105" t="n">
-        <v>31.212456</v>
+        <v>484</v>
+      </c>
+      <c r="C105" t="s">
+        <v>297</v>
+      </c>
+      <c r="D105" t="s">
+        <v>485</v>
+      </c>
+      <c r="E105" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>213</v>
+        <v>487</v>
       </c>
       <c r="B106" t="s">
-        <v>214</v>
-      </c>
-      <c r="C106" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="D106" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="E106" t="n">
-        <v>40.227942</v>
+        <v>488</v>
+      </c>
+      <c r="C106" t="s">
+        <v>489</v>
+      </c>
+      <c r="D106" t="s">
+        <v>316</v>
+      </c>
+      <c r="E106" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>215</v>
+        <v>491</v>
       </c>
       <c r="B107" t="s">
-        <v>216</v>
-      </c>
-      <c r="C107" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="D107" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="E107" t="n">
-        <v>26.02997</v>
+        <v>492</v>
+      </c>
+      <c r="C107" t="s">
+        <v>95</v>
+      </c>
+      <c r="D107" t="s">
+        <v>493</v>
+      </c>
+      <c r="E107" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>217</v>
+        <v>495</v>
       </c>
       <c r="B108" t="s">
-        <v>218</v>
-      </c>
-      <c r="C108" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="D108" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="E108" t="n">
-        <v>28.907721</v>
+        <v>496</v>
+      </c>
+      <c r="C108" t="s">
+        <v>497</v>
+      </c>
+      <c r="D108" t="s">
+        <v>498</v>
+      </c>
+      <c r="E108" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>219</v>
+        <v>500</v>
       </c>
       <c r="B109" t="s">
-        <v>220</v>
-      </c>
-      <c r="C109" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="D109" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="E109" t="n">
-        <v>24.092742</v>
+        <v>501</v>
+      </c>
+      <c r="C109" t="s">
+        <v>358</v>
+      </c>
+      <c r="D109" t="s">
+        <v>502</v>
+      </c>
+      <c r="E109" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>221</v>
+        <v>504</v>
       </c>
       <c r="B110" t="s">
-        <v>222</v>
-      </c>
-      <c r="C110" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="D110" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="E110" t="n">
-        <v>31.657401</v>
+        <v>505</v>
+      </c>
+      <c r="C110" t="s">
+        <v>497</v>
+      </c>
+      <c r="D110" t="s">
+        <v>86</v>
+      </c>
+      <c r="E110" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>223</v>
+        <v>507</v>
       </c>
       <c r="B111" t="s">
-        <v>224</v>
-      </c>
-      <c r="C111" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="D111" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="E111" t="n">
-        <v>32.539059</v>
+        <v>508</v>
+      </c>
+      <c r="C111" t="s">
+        <v>198</v>
+      </c>
+      <c r="D111" t="s">
+        <v>509</v>
+      </c>
+      <c r="E111" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>225</v>
+        <v>511</v>
       </c>
       <c r="B112" t="s">
-        <v>226</v>
-      </c>
-      <c r="C112" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="D112" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="E112" t="n">
-        <v>42.441871</v>
+        <v>512</v>
+      </c>
+      <c r="C112" t="s">
+        <v>513</v>
+      </c>
+      <c r="D112" t="s">
+        <v>199</v>
+      </c>
+      <c r="E112" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>227</v>
+        <v>515</v>
       </c>
       <c r="B113" t="s">
-        <v>228</v>
-      </c>
-      <c r="C113" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="D113" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="E113" t="n">
-        <v>37.789407</v>
+        <v>516</v>
+      </c>
+      <c r="C113" t="s">
+        <v>517</v>
+      </c>
+      <c r="D113" t="s">
+        <v>518</v>
+      </c>
+      <c r="E113" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>229</v>
+        <v>520</v>
       </c>
       <c r="B114" t="s">
-        <v>230</v>
-      </c>
-      <c r="C114" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="D114" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="E114" t="n">
-        <v>10.894048</v>
+        <v>521</v>
+      </c>
+      <c r="C114" t="s">
+        <v>105</v>
+      </c>
+      <c r="D114" t="s">
+        <v>522</v>
+      </c>
+      <c r="E114" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>231</v>
+        <v>524</v>
       </c>
       <c r="B115" t="s">
-        <v>232</v>
-      </c>
-      <c r="C115" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="D115" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="E115" t="n">
-        <v>18.310537</v>
+        <v>525</v>
+      </c>
+      <c r="C115" t="s">
+        <v>526</v>
+      </c>
+      <c r="D115" t="s">
+        <v>214</v>
+      </c>
+      <c r="E115" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>233</v>
+        <v>528</v>
       </c>
       <c r="B116" t="s">
-        <v>234</v>
-      </c>
-      <c r="C116" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="D116" t="n">
-        <v>5.37</v>
-      </c>
-      <c r="E116" t="n">
-        <v>64.709951</v>
+        <v>529</v>
+      </c>
+      <c r="C116" t="s">
+        <v>81</v>
+      </c>
+      <c r="D116" t="s">
+        <v>530</v>
+      </c>
+      <c r="E116" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>235</v>
+        <v>532</v>
       </c>
       <c r="B117" t="s">
-        <v>236</v>
-      </c>
-      <c r="C117" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="D117" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="E117" t="n">
-        <v>18.933333</v>
+        <v>533</v>
+      </c>
+      <c r="C117" t="s">
+        <v>534</v>
+      </c>
+      <c r="D117" t="s">
+        <v>535</v>
+      </c>
+      <c r="E117" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>237</v>
+        <v>537</v>
       </c>
       <c r="B118" t="s">
-        <v>238</v>
-      </c>
-      <c r="C118" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="D118" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="E118" t="n">
-        <v>54.25065</v>
+        <v>538</v>
+      </c>
+      <c r="C118" t="s">
+        <v>100</v>
+      </c>
+      <c r="D118" t="s">
+        <v>539</v>
+      </c>
+      <c r="E118" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>239</v>
+        <v>541</v>
       </c>
       <c r="B119" t="s">
-        <v>240</v>
-      </c>
-      <c r="C119" t="n">
-        <v>19.6</v>
-      </c>
-      <c r="D119" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="E119" t="n">
-        <v>45.156359</v>
+        <v>542</v>
+      </c>
+      <c r="C119" t="s">
+        <v>273</v>
+      </c>
+      <c r="D119" t="s">
+        <v>219</v>
+      </c>
+      <c r="E119" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>241</v>
+        <v>544</v>
       </c>
       <c r="B120" t="s">
-        <v>242</v>
-      </c>
-      <c r="C120" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="D120" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="E120" t="n">
-        <v>15.377904</v>
+        <v>545</v>
+      </c>
+      <c r="C120" t="s">
+        <v>546</v>
+      </c>
+      <c r="D120" t="s">
+        <v>547</v>
+      </c>
+      <c r="E120" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>243</v>
+        <v>549</v>
       </c>
       <c r="B121" t="s">
-        <v>244</v>
-      </c>
-      <c r="C121" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="D121" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="E121" t="n">
-        <v>58.558247</v>
+        <v>550</v>
+      </c>
+      <c r="C121" t="s">
+        <v>403</v>
+      </c>
+      <c r="D121" t="s">
+        <v>551</v>
+      </c>
+      <c r="E121" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>245</v>
+        <v>553</v>
       </c>
       <c r="B122" t="s">
-        <v>246</v>
-      </c>
-      <c r="C122" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="D122" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="E122" t="n">
-        <v>65.379593</v>
+        <v>554</v>
+      </c>
+      <c r="C122" t="s">
+        <v>555</v>
+      </c>
+      <c r="D122" t="s">
+        <v>539</v>
+      </c>
+      <c r="E122" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>247</v>
+        <v>557</v>
       </c>
       <c r="B123" t="s">
-        <v>248</v>
-      </c>
-      <c r="C123" t="n">
-        <v>19.6</v>
-      </c>
-      <c r="D123" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="E123" t="n">
-        <v>52.684659</v>
+        <v>558</v>
+      </c>
+      <c r="C123" t="s">
+        <v>273</v>
+      </c>
+      <c r="D123" t="s">
+        <v>559</v>
+      </c>
+      <c r="E123" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>249</v>
+        <v>561</v>
       </c>
       <c r="B124" t="s">
-        <v>250</v>
-      </c>
-      <c r="C124" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="D124" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="E124" t="n">
-        <v>40.7634</v>
+        <v>562</v>
+      </c>
+      <c r="C124" t="s">
+        <v>563</v>
+      </c>
+      <c r="D124" t="s">
+        <v>564</v>
+      </c>
+      <c r="E124" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>251</v>
+        <v>566</v>
       </c>
       <c r="B125" t="s">
-        <v>252</v>
-      </c>
-      <c r="C125" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="D125" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="E125" t="n">
-        <v>24.257273</v>
+        <v>567</v>
+      </c>
+      <c r="C125" t="s">
+        <v>568</v>
+      </c>
+      <c r="D125" t="s">
+        <v>180</v>
+      </c>
+      <c r="E125" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>253</v>
+        <v>570</v>
       </c>
       <c r="B126" t="s">
-        <v>254</v>
-      </c>
-      <c r="C126" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="D126" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="E126" t="n">
-        <v>13.305398</v>
+        <v>571</v>
+      </c>
+      <c r="C126" t="s">
+        <v>105</v>
+      </c>
+      <c r="D126" t="s">
+        <v>572</v>
+      </c>
+      <c r="E126" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>255</v>
+        <v>574</v>
       </c>
       <c r="B127" t="s">
-        <v>256</v>
-      </c>
-      <c r="C127" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="D127" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="E127" t="n">
-        <v>47.806079</v>
+        <v>575</v>
+      </c>
+      <c r="C127" t="s">
+        <v>576</v>
+      </c>
+      <c r="D127" t="s">
+        <v>577</v>
+      </c>
+      <c r="E127" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>257</v>
+        <v>579</v>
       </c>
       <c r="B128" t="s">
-        <v>258</v>
-      </c>
-      <c r="C128" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="D128" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="E128" t="n">
-        <v>34.495739</v>
+        <v>580</v>
+      </c>
+      <c r="C128" t="s">
+        <v>17</v>
+      </c>
+      <c r="D128" t="s">
+        <v>581</v>
+      </c>
+      <c r="E128" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>259</v>
+        <v>583</v>
       </c>
       <c r="B129" t="s">
-        <v>260</v>
-      </c>
-      <c r="C129" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="D129" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="E129" t="n">
-        <v>5.8414796</v>
+        <v>584</v>
+      </c>
+      <c r="C129" t="s">
+        <v>585</v>
+      </c>
+      <c r="D129" t="s">
+        <v>586</v>
+      </c>
+      <c r="E129" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>261</v>
+        <v>588</v>
       </c>
       <c r="B130" t="s">
-        <v>262</v>
-      </c>
-      <c r="C130" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="D130" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="E130" t="n">
-        <v>12.801658</v>
+        <v>589</v>
+      </c>
+      <c r="C130" t="s">
+        <v>320</v>
+      </c>
+      <c r="D130" t="s">
+        <v>590</v>
+      </c>
+      <c r="E130" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>263</v>
+        <v>592</v>
       </c>
       <c r="B131" t="s">
-        <v>264</v>
-      </c>
-      <c r="C131" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="D131" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="E131" t="n">
-        <v>34.031646</v>
+        <v>593</v>
+      </c>
+      <c r="C131" t="s">
+        <v>129</v>
+      </c>
+      <c r="D131" t="s">
+        <v>594</v>
+      </c>
+      <c r="E131" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>265</v>
+        <v>596</v>
       </c>
       <c r="B132" t="s">
-        <v>266</v>
-      </c>
-      <c r="C132" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="D132" t="n">
-        <v>3.69</v>
-      </c>
-      <c r="E132" t="n">
-        <v>20.477444</v>
+        <v>597</v>
+      </c>
+      <c r="C132" t="s">
+        <v>526</v>
+      </c>
+      <c r="D132" t="s">
+        <v>598</v>
+      </c>
+      <c r="E132" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>267</v>
+        <v>600</v>
       </c>
       <c r="B133" t="s">
-        <v>268</v>
-      </c>
-      <c r="C133" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="D133" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="E133" t="n">
-        <v>18.942219</v>
+        <v>601</v>
+      </c>
+      <c r="C133" t="s">
+        <v>602</v>
+      </c>
+      <c r="D133" t="s">
+        <v>603</v>
+      </c>
+      <c r="E133" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>269</v>
+        <v>605</v>
       </c>
       <c r="B134" t="s">
-        <v>270</v>
-      </c>
-      <c r="C134" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="D134" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="E134" t="n">
-        <v>15.858376</v>
+        <v>606</v>
+      </c>
+      <c r="C134" t="s">
+        <v>462</v>
+      </c>
+      <c r="D134" t="s">
+        <v>415</v>
+      </c>
+      <c r="E134" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>271</v>
+        <v>608</v>
       </c>
       <c r="B135" t="s">
-        <v>272</v>
-      </c>
-      <c r="C135" t="n">
-        <v>24.1</v>
-      </c>
-      <c r="D135" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="E135" t="n">
-        <v>27.154327</v>
+        <v>609</v>
+      </c>
+      <c r="C135" t="s">
+        <v>610</v>
+      </c>
+      <c r="D135" t="s">
+        <v>611</v>
+      </c>
+      <c r="E135" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>273</v>
+        <v>613</v>
       </c>
       <c r="B136" t="s">
-        <v>274</v>
-      </c>
-      <c r="C136" t="n">
-        <v>14</v>
-      </c>
-      <c r="D136" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="E136" t="n">
-        <v>17.849094</v>
+        <v>614</v>
+      </c>
+      <c r="C136" t="s">
+        <v>615</v>
+      </c>
+      <c r="D136" t="s">
+        <v>38</v>
+      </c>
+      <c r="E136" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>275</v>
+        <v>617</v>
       </c>
       <c r="B137" t="s">
-        <v>276</v>
-      </c>
-      <c r="C137" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="D137" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="E137" t="n">
-        <v>24.277411</v>
+        <v>618</v>
+      </c>
+      <c r="C137" t="s">
+        <v>213</v>
+      </c>
+      <c r="D137" t="s">
+        <v>619</v>
+      </c>
+      <c r="E137" t="s">
+        <v>620</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>277</v>
+        <v>621</v>
       </c>
       <c r="B138" t="s">
-        <v>278</v>
-      </c>
-      <c r="C138" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="D138" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="E138" t="n">
-        <v>40.040523</v>
+        <v>622</v>
+      </c>
+      <c r="C138" t="s">
+        <v>623</v>
+      </c>
+      <c r="D138" t="s">
+        <v>624</v>
+      </c>
+      <c r="E138" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>279</v>
+        <v>626</v>
       </c>
       <c r="B139" t="s">
-        <v>280</v>
-      </c>
-      <c r="C139" t="n">
-        <v>24.6</v>
-      </c>
-      <c r="D139" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="E139" t="n">
-        <v>30.595561</v>
+        <v>627</v>
+      </c>
+      <c r="C139" t="s">
+        <v>628</v>
+      </c>
+      <c r="D139" t="s">
+        <v>68</v>
+      </c>
+      <c r="E139" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>281</v>
+        <v>630</v>
       </c>
       <c r="B140" t="s">
-        <v>282</v>
-      </c>
-      <c r="C140" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="D140" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="E140" t="n">
-        <v>31.50458</v>
+        <v>631</v>
+      </c>
+      <c r="C140" t="s">
+        <v>489</v>
+      </c>
+      <c r="D140" t="s">
+        <v>86</v>
+      </c>
+      <c r="E140" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>283</v>
+        <v>633</v>
       </c>
       <c r="B141" t="s">
-        <v>284</v>
-      </c>
-      <c r="C141" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="D141" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="E141" t="n">
-        <v>31.224037</v>
+        <v>634</v>
+      </c>
+      <c r="C141" t="s">
+        <v>57</v>
+      </c>
+      <c r="D141" t="s">
+        <v>364</v>
+      </c>
+      <c r="E141" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>285</v>
+        <v>636</v>
       </c>
       <c r="B142" t="s">
-        <v>286</v>
-      </c>
-      <c r="C142" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="D142" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="E142" t="n">
-        <v>31.425798</v>
+        <v>637</v>
+      </c>
+      <c r="C142" t="s">
+        <v>638</v>
+      </c>
+      <c r="D142" t="s">
+        <v>639</v>
+      </c>
+      <c r="E142" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>287</v>
+        <v>641</v>
       </c>
       <c r="B143" t="s">
-        <v>288</v>
-      </c>
-      <c r="C143" t="n">
-        <v>31</v>
-      </c>
-      <c r="D143" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="E143" t="n">
-        <v>30.896181</v>
+        <v>642</v>
+      </c>
+      <c r="C143" t="s">
+        <v>643</v>
+      </c>
+      <c r="D143" t="s">
+        <v>111</v>
+      </c>
+      <c r="E143" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>289</v>
+        <v>645</v>
       </c>
       <c r="B144" t="s">
-        <v>290</v>
-      </c>
-      <c r="C144" t="n">
-        <v>35.3</v>
-      </c>
-      <c r="D144" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="E144" t="n">
-        <v>30.829523</v>
+        <v>646</v>
+      </c>
+      <c r="C144" t="s">
+        <v>647</v>
+      </c>
+      <c r="D144" t="s">
+        <v>648</v>
+      </c>
+      <c r="E144" t="s">
+        <v>649</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>291</v>
+        <v>650</v>
       </c>
       <c r="B145" t="s">
-        <v>292</v>
-      </c>
-      <c r="C145" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="D145" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="E145" t="n">
-        <v>11.664907</v>
+        <v>650</v>
+      </c>
+      <c r="C145" t="s">
+        <v>650</v>
+      </c>
+      <c r="D145" t="s">
+        <v>650</v>
+      </c>
+      <c r="E145" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>293</v>
+        <v>651</v>
       </c>
       <c r="B146" t="s">
-        <v>294</v>
-      </c>
-      <c r="C146" t="n">
-        <v>24.9</v>
-      </c>
-      <c r="D146" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="E146" t="n">
-        <v>13.73293</v>
+        <v>652</v>
+      </c>
+      <c r="C146" t="s">
+        <v>156</v>
+      </c>
+      <c r="D146" t="s">
+        <v>653</v>
+      </c>
+      <c r="E146" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>295</v>
+        <v>655</v>
       </c>
       <c r="B147" t="s">
-        <v>296</v>
-      </c>
-      <c r="C147" t="n">
-        <v>9.2</v>
-      </c>
-      <c r="D147" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="E147" t="n">
-        <v>12.659</v>
+        <v>656</v>
+      </c>
+      <c r="C147" t="s">
+        <v>85</v>
+      </c>
+      <c r="D147" t="s">
+        <v>13</v>
+      </c>
+      <c r="E147" t="s">
+        <v>657</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>297</v>
+        <v>658</v>
       </c>
       <c r="B148" t="s">
-        <v>298</v>
-      </c>
-      <c r="C148" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="D148" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="E148" t="n">
-        <v>8.2026345</v>
+        <v>659</v>
+      </c>
+      <c r="C148" t="s">
+        <v>660</v>
+      </c>
+      <c r="D148" t="s">
+        <v>473</v>
+      </c>
+      <c r="E148" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>299</v>
+        <v>662</v>
       </c>
       <c r="B149" t="s">
-        <v>300</v>
-      </c>
-      <c r="C149" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D149" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="E149" t="n">
-        <v>20.921479</v>
+        <v>663</v>
+      </c>
+      <c r="C149" t="s">
+        <v>546</v>
+      </c>
+      <c r="D149" t="s">
+        <v>664</v>
+      </c>
+      <c r="E149" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>301</v>
+        <v>666</v>
       </c>
       <c r="B150" t="s">
-        <v>302</v>
-      </c>
-      <c r="C150" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="D150" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="E150" t="n">
-        <v>2.1439818</v>
+        <v>667</v>
+      </c>
+      <c r="C150" t="s">
+        <v>668</v>
+      </c>
+      <c r="D150" t="s">
+        <v>572</v>
+      </c>
+      <c r="E150" t="s">
+        <v>669</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>303</v>
+        <v>670</v>
       </c>
       <c r="B151" t="s">
-        <v>304</v>
-      </c>
-      <c r="C151" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="D151" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="E151" t="n">
-        <v>38.862711</v>
+        <v>671</v>
+      </c>
+      <c r="C151" t="s">
+        <v>534</v>
+      </c>
+      <c r="D151" t="s">
+        <v>672</v>
+      </c>
+      <c r="E151" t="s">
+        <v>673</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>305</v>
+        <v>674</v>
       </c>
       <c r="B152" t="s">
-        <v>306</v>
-      </c>
-      <c r="C152" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="D152" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="E152" t="n">
-        <v>43.00097</v>
+        <v>675</v>
+      </c>
+      <c r="C152" t="s">
+        <v>37</v>
+      </c>
+      <c r="D152" t="s">
+        <v>586</v>
+      </c>
+      <c r="E152" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>307</v>
+        <v>677</v>
       </c>
       <c r="B153" t="s">
-        <v>308</v>
-      </c>
-      <c r="C153" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="D153" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="E153" t="n">
-        <v>40.506873</v>
+        <v>678</v>
+      </c>
+      <c r="C153" t="s">
+        <v>679</v>
+      </c>
+      <c r="D153" t="s">
+        <v>199</v>
+      </c>
+      <c r="E153" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>309</v>
+        <v>681</v>
       </c>
       <c r="B154" t="s">
-        <v>310</v>
-      </c>
-      <c r="C154" t="n">
-        <v>19</v>
-      </c>
-      <c r="D154" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="E154" t="n">
-        <v>20.585733</v>
+        <v>682</v>
+      </c>
+      <c r="C154" t="s">
+        <v>683</v>
+      </c>
+      <c r="D154" t="s">
+        <v>229</v>
+      </c>
+      <c r="E154" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>311</v>
+        <v>685</v>
       </c>
       <c r="B155" t="s">
-        <v>312</v>
-      </c>
-      <c r="C155" t="n">
-        <v>33.9</v>
-      </c>
-      <c r="D155" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="E155" t="n">
-        <v>53.389937</v>
+        <v>686</v>
+      </c>
+      <c r="C155" t="s">
+        <v>242</v>
+      </c>
+      <c r="D155" t="s">
+        <v>687</v>
+      </c>
+      <c r="E155" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>313</v>
+        <v>689</v>
       </c>
       <c r="B156" t="s">
-        <v>314</v>
-      </c>
-      <c r="C156" t="n">
-        <v>41.3</v>
-      </c>
-      <c r="D156" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="E156" t="n">
-        <v>59.708586</v>
+        <v>690</v>
+      </c>
+      <c r="C156" t="s">
+        <v>691</v>
+      </c>
+      <c r="D156" t="s">
+        <v>692</v>
+      </c>
+      <c r="E156" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>315</v>
+        <v>694</v>
       </c>
       <c r="B157" t="s">
-        <v>316</v>
-      </c>
-      <c r="C157" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="D157" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="E157" t="n">
-        <v>26.869871</v>
+        <v>695</v>
+      </c>
+      <c r="C157" t="s">
+        <v>696</v>
+      </c>
+      <c r="D157" t="s">
+        <v>539</v>
+      </c>
+      <c r="E157" t="s">
+        <v>697</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>317</v>
+        <v>698</v>
       </c>
       <c r="B158" t="s">
-        <v>318</v>
-      </c>
-      <c r="C158" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="D158" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="E158" t="n">
-        <v>15.968354</v>
+        <v>699</v>
+      </c>
+      <c r="C158" t="s">
+        <v>62</v>
+      </c>
+      <c r="D158" t="s">
+        <v>700</v>
+      </c>
+      <c r="E158" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>319</v>
+        <v>702</v>
       </c>
       <c r="B159" t="s">
-        <v>320</v>
-      </c>
-      <c r="C159" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="D159" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="E159" t="n">
-        <v>12.790551</v>
+        <v>703</v>
+      </c>
+      <c r="C159" t="s">
+        <v>704</v>
+      </c>
+      <c r="D159" t="s">
+        <v>38</v>
+      </c>
+      <c r="E159" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>321</v>
+        <v>706</v>
       </c>
       <c r="B160" t="s">
-        <v>322</v>
-      </c>
-      <c r="C160" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="D160" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="E160" t="n">
-        <v>10.666118</v>
+        <v>707</v>
+      </c>
+      <c r="C160" t="s">
+        <v>708</v>
+      </c>
+      <c r="D160" t="s">
+        <v>687</v>
+      </c>
+      <c r="E160" t="s">
+        <v>709</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>323</v>
+        <v>710</v>
       </c>
       <c r="B161" t="s">
-        <v>324</v>
-      </c>
-      <c r="C161" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="D161" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="E161" t="n">
-        <v>29.070005</v>
+        <v>711</v>
+      </c>
+      <c r="C161" t="s">
+        <v>712</v>
+      </c>
+      <c r="D161" t="s">
+        <v>713</v>
+      </c>
+      <c r="E161" t="s">
+        <v>714</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>325</v>
+        <v>715</v>
       </c>
       <c r="B162" t="s">
-        <v>326</v>
-      </c>
-      <c r="C162" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="D162" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="E162" t="n">
-        <v>15.621076</v>
+        <v>716</v>
+      </c>
+      <c r="C162" t="s">
+        <v>72</v>
+      </c>
+      <c r="D162" t="s">
+        <v>717</v>
+      </c>
+      <c r="E162" t="s">
+        <v>718</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>327</v>
+        <v>719</v>
       </c>
       <c r="B163" t="s">
-        <v>328</v>
-      </c>
-      <c r="C163" t="n">
-        <v>45.3</v>
-      </c>
-      <c r="D163" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="E163" t="n">
-        <v>34.79674</v>
+        <v>720</v>
+      </c>
+      <c r="C163" t="s">
+        <v>721</v>
+      </c>
+      <c r="D163" t="s">
+        <v>349</v>
+      </c>
+      <c r="E163" t="s">
+        <v>722</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>329</v>
+        <v>723</v>
       </c>
       <c r="B164" t="s">
-        <v>330</v>
-      </c>
-      <c r="C164" t="n">
-        <v>52.1</v>
-      </c>
-      <c r="D164" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="E164" t="n">
-        <v>43.263158</v>
+        <v>724</v>
+      </c>
+      <c r="C164" t="s">
+        <v>725</v>
+      </c>
+      <c r="D164" t="s">
+        <v>717</v>
+      </c>
+      <c r="E164" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>331</v>
+        <v>727</v>
       </c>
       <c r="B165" t="s">
-        <v>332</v>
-      </c>
-      <c r="C165" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="D165" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="E165" t="n">
-        <v>23.142773</v>
+        <v>728</v>
+      </c>
+      <c r="C165" t="s">
+        <v>729</v>
+      </c>
+      <c r="D165" t="s">
+        <v>730</v>
+      </c>
+      <c r="E165" t="s">
+        <v>731</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>333</v>
+        <v>732</v>
       </c>
       <c r="B166" t="s">
-        <v>334</v>
-      </c>
-      <c r="C166" t="n">
-        <v>25</v>
-      </c>
-      <c r="D166" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="E166" t="n">
-        <v>19.363288</v>
+        <v>733</v>
+      </c>
+      <c r="C166" t="s">
+        <v>233</v>
+      </c>
+      <c r="D166" t="s">
+        <v>493</v>
+      </c>
+      <c r="E166" t="s">
+        <v>734</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>335</v>
+        <v>735</v>
       </c>
       <c r="B167" t="s">
-        <v>336</v>
-      </c>
-      <c r="C167" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="D167" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="E167" t="n">
-        <v>24.635078</v>
+        <v>736</v>
+      </c>
+      <c r="C167" t="s">
+        <v>737</v>
+      </c>
+      <c r="D167" t="s">
+        <v>473</v>
+      </c>
+      <c r="E167" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>337</v>
+        <v>739</v>
       </c>
       <c r="B168" t="s">
-        <v>338</v>
-      </c>
-      <c r="C168" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="D168" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="E168" t="n">
-        <v>26.746336</v>
+        <v>740</v>
+      </c>
+      <c r="C168" t="s">
+        <v>741</v>
+      </c>
+      <c r="D168" t="s">
+        <v>717</v>
+      </c>
+      <c r="E168" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>339</v>
+        <v>743</v>
       </c>
       <c r="B169" t="s">
-        <v>340</v>
-      </c>
-      <c r="C169" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="D169" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="E169" t="n">
-        <v>38.25788</v>
+        <v>744</v>
+      </c>
+      <c r="C169" t="s">
+        <v>57</v>
+      </c>
+      <c r="D169" t="s">
+        <v>359</v>
+      </c>
+      <c r="E169" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>341</v>
+        <v>746</v>
       </c>
       <c r="B170" t="s">
-        <v>342</v>
-      </c>
-      <c r="C170" t="n">
-        <v>32.1</v>
-      </c>
-      <c r="D170" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="E170" t="n">
-        <v>27.995372</v>
+        <v>747</v>
+      </c>
+      <c r="C170" t="s">
+        <v>748</v>
+      </c>
+      <c r="D170" t="s">
+        <v>73</v>
+      </c>
+      <c r="E170" t="s">
+        <v>749</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>343</v>
+        <v>750</v>
       </c>
       <c r="B171" t="s">
-        <v>344</v>
-      </c>
-      <c r="C171" t="n">
-        <v>40.8</v>
-      </c>
-      <c r="D171" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="E171" t="n">
-        <v>39.402547</v>
+        <v>751</v>
+      </c>
+      <c r="C171" t="s">
+        <v>752</v>
+      </c>
+      <c r="D171" t="s">
+        <v>753</v>
+      </c>
+      <c r="E171" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>345</v>
+        <v>755</v>
       </c>
       <c r="B172" t="s">
-        <v>346</v>
-      </c>
-      <c r="C172" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="D172" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="E172" t="n">
-        <v>20.946029</v>
+        <v>756</v>
+      </c>
+      <c r="C172" t="s">
+        <v>757</v>
+      </c>
+      <c r="D172" t="s">
+        <v>758</v>
+      </c>
+      <c r="E172" t="s">
+        <v>759</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>347</v>
+        <v>760</v>
       </c>
       <c r="B173" t="s">
-        <v>348</v>
-      </c>
-      <c r="C173" t="n">
-        <v>35.3</v>
-      </c>
-      <c r="D173" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="E173" t="n">
-        <v>36.921322</v>
+        <v>761</v>
+      </c>
+      <c r="C173" t="s">
+        <v>762</v>
+      </c>
+      <c r="D173" t="s">
+        <v>321</v>
+      </c>
+      <c r="E173" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>349</v>
+        <v>764</v>
       </c>
       <c r="B174" t="s">
-        <v>350</v>
-      </c>
-      <c r="C174" t="n">
-        <v>24.1</v>
-      </c>
-      <c r="D174" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="E174" t="n">
-        <v>19.578919</v>
+        <v>765</v>
+      </c>
+      <c r="C174" t="s">
+        <v>647</v>
+      </c>
+      <c r="D174" t="s">
+        <v>58</v>
+      </c>
+      <c r="E174" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>351</v>
+        <v>767</v>
       </c>
       <c r="B175" t="s">
-        <v>352</v>
-      </c>
-      <c r="C175" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="D175" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="E175" t="n">
-        <v>23.284347</v>
+        <v>768</v>
+      </c>
+      <c r="C175" t="s">
+        <v>610</v>
+      </c>
+      <c r="D175" t="s">
+        <v>255</v>
+      </c>
+      <c r="E175" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>353</v>
+        <v>770</v>
       </c>
       <c r="B176" t="s">
-        <v>354</v>
-      </c>
-      <c r="C176" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="D176" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="E176" t="n">
-        <v>25.695764</v>
+        <v>771</v>
+      </c>
+      <c r="C176" t="s">
+        <v>282</v>
+      </c>
+      <c r="D176" t="s">
+        <v>224</v>
+      </c>
+      <c r="E176" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>355</v>
+        <v>773</v>
       </c>
       <c r="B177" t="s">
-        <v>356</v>
-      </c>
-      <c r="C177" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="D177" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="E177" t="n">
-        <v>29.618165</v>
+        <v>774</v>
+      </c>
+      <c r="C177" t="s">
+        <v>775</v>
+      </c>
+      <c r="D177" t="s">
+        <v>28</v>
+      </c>
+      <c r="E177" t="s">
+        <v>776</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>357</v>
+        <v>777</v>
       </c>
       <c r="B178" t="s">
-        <v>358</v>
-      </c>
-      <c r="C178" t="n">
-        <v>14</v>
-      </c>
-      <c r="D178" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="E178" t="n">
-        <v>24.172389</v>
+        <v>778</v>
+      </c>
+      <c r="C178" t="s">
+        <v>100</v>
+      </c>
+      <c r="D178" t="s">
+        <v>779</v>
+      </c>
+      <c r="E178" t="s">
+        <v>780</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>359</v>
+        <v>781</v>
       </c>
       <c r="B179" t="s">
-        <v>360</v>
-      </c>
-      <c r="C179" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="D179" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="E179" t="n">
-        <v>26.881291</v>
+        <v>782</v>
+      </c>
+      <c r="C179" t="s">
+        <v>615</v>
+      </c>
+      <c r="D179" t="s">
+        <v>783</v>
+      </c>
+      <c r="E179" t="s">
+        <v>784</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>361</v>
+        <v>785</v>
       </c>
       <c r="B180" t="s">
-        <v>362</v>
-      </c>
-      <c r="C180" t="n">
-        <v>22.3</v>
-      </c>
-      <c r="D180" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="E180" t="n">
-        <v>22.329468</v>
+        <v>786</v>
+      </c>
+      <c r="C180" t="s">
+        <v>198</v>
+      </c>
+      <c r="D180" t="s">
+        <v>38</v>
+      </c>
+      <c r="E180" t="s">
+        <v>787</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>363</v>
+        <v>788</v>
       </c>
       <c r="B181" t="s">
-        <v>364</v>
-      </c>
-      <c r="C181" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="D181" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="E181" t="n">
-        <v>24.531336</v>
+        <v>789</v>
+      </c>
+      <c r="C181" t="s">
+        <v>790</v>
+      </c>
+      <c r="D181" t="s">
+        <v>498</v>
+      </c>
+      <c r="E181" t="s">
+        <v>791</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>365</v>
+        <v>792</v>
       </c>
       <c r="B182" t="s">
-        <v>366</v>
-      </c>
-      <c r="C182" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="D182" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="E182" t="n">
-        <v>24.325982</v>
+        <v>793</v>
+      </c>
+      <c r="C182" t="s">
+        <v>794</v>
+      </c>
+      <c r="D182" t="s">
+        <v>408</v>
+      </c>
+      <c r="E182" t="s">
+        <v>795</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>367</v>
+        <v>796</v>
       </c>
       <c r="B183" t="s">
-        <v>368</v>
-      </c>
-      <c r="C183" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="D183" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="E183" t="n">
-        <v>20.462078</v>
+        <v>797</v>
+      </c>
+      <c r="C183" t="s">
+        <v>170</v>
+      </c>
+      <c r="D183" t="s">
+        <v>255</v>
+      </c>
+      <c r="E183" t="s">
+        <v>798</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>369</v>
+        <v>799</v>
       </c>
       <c r="B184" t="s">
-        <v>370</v>
-      </c>
-      <c r="C184" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="D184" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="E184" t="n">
-        <v>22.519135</v>
+        <v>800</v>
+      </c>
+      <c r="C184" t="s">
+        <v>801</v>
+      </c>
+      <c r="D184" t="s">
+        <v>802</v>
+      </c>
+      <c r="E184" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>371</v>
+        <v>804</v>
       </c>
       <c r="B185" t="s">
-        <v>372</v>
-      </c>
-      <c r="C185" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="D185" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="E185" t="n">
-        <v>4.106944</v>
+        <v>805</v>
+      </c>
+      <c r="C185" t="s">
+        <v>806</v>
+      </c>
+      <c r="D185" t="s">
+        <v>38</v>
+      </c>
+      <c r="E185" t="s">
+        <v>807</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>373</v>
+        <v>808</v>
       </c>
       <c r="B186" t="s">
-        <v>374</v>
-      </c>
-      <c r="C186" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="D186" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="E186" t="n">
-        <v>4.8259494</v>
+        <v>809</v>
+      </c>
+      <c r="C186" t="s">
+        <v>534</v>
+      </c>
+      <c r="D186" t="s">
+        <v>810</v>
+      </c>
+      <c r="E186" t="s">
+        <v>811</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>375</v>
+        <v>812</v>
       </c>
       <c r="B187" t="s">
-        <v>376</v>
-      </c>
-      <c r="C187" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="D187" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="E187" t="n">
-        <v>5.6696296</v>
+        <v>813</v>
+      </c>
+      <c r="C187" t="s">
+        <v>623</v>
+      </c>
+      <c r="D187" t="s">
+        <v>814</v>
+      </c>
+      <c r="E187" t="s">
+        <v>815</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>377</v>
+        <v>816</v>
       </c>
       <c r="B188" t="s">
-        <v>378</v>
-      </c>
-      <c r="C188" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="D188" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="E188" t="n">
-        <v>4.0400729</v>
+        <v>817</v>
+      </c>
+      <c r="C188" t="s">
+        <v>142</v>
+      </c>
+      <c r="D188" t="s">
+        <v>818</v>
+      </c>
+      <c r="E188" t="s">
+        <v>819</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>379</v>
+        <v>820</v>
       </c>
       <c r="B189" t="s">
-        <v>380</v>
-      </c>
-      <c r="C189" t="n">
-        <v>12</v>
-      </c>
-      <c r="D189" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="E189" t="n">
-        <v>11.691337</v>
+        <v>821</v>
+      </c>
+      <c r="C189" t="s">
+        <v>822</v>
+      </c>
+      <c r="D189" t="s">
+        <v>823</v>
+      </c>
+      <c r="E189" t="s">
+        <v>824</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>381</v>
+        <v>825</v>
       </c>
       <c r="B190" t="s">
-        <v>382</v>
-      </c>
-      <c r="C190" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D190" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="E190" t="n">
-        <v>11.206156</v>
+        <v>826</v>
+      </c>
+      <c r="C190" t="s">
+        <v>827</v>
+      </c>
+      <c r="D190" t="s">
+        <v>783</v>
+      </c>
+      <c r="E190" t="s">
+        <v>828</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>383</v>
+        <v>829</v>
       </c>
       <c r="B191" t="s">
-        <v>384</v>
-      </c>
-      <c r="C191" t="n">
-        <v>15</v>
-      </c>
-      <c r="D191" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="E191" t="n">
-        <v>11.789823</v>
+        <v>830</v>
+      </c>
+      <c r="C191" t="s">
+        <v>831</v>
+      </c>
+      <c r="D191" t="s">
+        <v>832</v>
+      </c>
+      <c r="E191" t="s">
+        <v>833</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>385</v>
+        <v>834</v>
       </c>
       <c r="B192" t="s">
-        <v>386</v>
-      </c>
-      <c r="C192" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="D192" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="E192" t="n">
-        <v>27.596343</v>
+        <v>835</v>
+      </c>
+      <c r="C192" t="s">
+        <v>836</v>
+      </c>
+      <c r="D192" t="s">
+        <v>837</v>
+      </c>
+      <c r="E192" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>387</v>
+        <v>839</v>
       </c>
       <c r="B193" t="s">
-        <v>388</v>
-      </c>
-      <c r="C193" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="D193" t="n">
-        <v>4.72</v>
-      </c>
-      <c r="E193" t="n">
-        <v>64.037636</v>
+        <v>840</v>
+      </c>
+      <c r="C193" t="s">
+        <v>213</v>
+      </c>
+      <c r="D193" t="s">
+        <v>68</v>
+      </c>
+      <c r="E193" t="s">
+        <v>841</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>389</v>
+        <v>842</v>
       </c>
       <c r="B194" t="s">
-        <v>390</v>
-      </c>
-      <c r="C194" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="D194" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="E194" t="n">
-        <v>33.732956</v>
+        <v>843</v>
+      </c>
+      <c r="C194" t="s">
+        <v>844</v>
+      </c>
+      <c r="D194" t="s">
+        <v>845</v>
+      </c>
+      <c r="E194" t="s">
+        <v>846</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>391</v>
+        <v>847</v>
       </c>
       <c r="B195" t="s">
-        <v>392</v>
-      </c>
-      <c r="C195" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="D195" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="E195" t="n">
-        <v>66.606504</v>
+        <v>848</v>
+      </c>
+      <c r="C195" t="s">
+        <v>175</v>
+      </c>
+      <c r="D195" t="s">
+        <v>340</v>
+      </c>
+      <c r="E195" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>850</v>
+      </c>
+      <c r="B196" t="s">
+        <v>851</v>
+      </c>
+      <c r="C196" t="s">
+        <v>268</v>
+      </c>
+      <c r="D196" t="s">
+        <v>408</v>
+      </c>
+      <c r="E196" t="s">
+        <v>852</v>
       </c>
     </row>
   </sheetData>
